--- a/Output_Data.xlsx
+++ b/Output_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="236">
   <si>
     <t>Tank</t>
   </si>
@@ -436,216 +436,216 @@
     <t>2015-05-21</t>
   </si>
   <si>
+    <t>2015-06-15</t>
+  </si>
+  <si>
+    <t>2015-06-17</t>
+  </si>
+  <si>
+    <t>2015-10-01</t>
+  </si>
+  <si>
+    <t>2015-12-14</t>
+  </si>
+  <si>
+    <t>2015-12-21</t>
+  </si>
+  <si>
+    <t>2015-12-30</t>
+  </si>
+  <si>
+    <t>2016-01-21</t>
+  </si>
+  <si>
+    <t>2016-01-28</t>
+  </si>
+  <si>
+    <t>2016-02-01</t>
+  </si>
+  <si>
+    <t>2016-02-15</t>
+  </si>
+  <si>
+    <t>2016-03-03</t>
+  </si>
+  <si>
+    <t>2016-03-10</t>
+  </si>
+  <si>
+    <t>2016-03-21</t>
+  </si>
+  <si>
+    <t>2017-05-22</t>
+  </si>
+  <si>
+    <t>2017-06-14</t>
+  </si>
+  <si>
+    <t>2012-10-17</t>
+  </si>
+  <si>
+    <t>2014-08-06</t>
+  </si>
+  <si>
+    <t>2014-09-29</t>
+  </si>
+  <si>
+    <t>2014-10-06</t>
+  </si>
+  <si>
+    <t>2014-10-30</t>
+  </si>
+  <si>
+    <t>2014-12-11</t>
+  </si>
+  <si>
+    <t>2015-01-22</t>
+  </si>
+  <si>
+    <t>2015-02-02</t>
+  </si>
+  <si>
+    <t>2017-06-28</t>
+  </si>
+  <si>
+    <t>2017-09-13</t>
+  </si>
+  <si>
+    <t>2017-10-16</t>
+  </si>
+  <si>
+    <t>2017-10-23</t>
+  </si>
+  <si>
+    <t>2017-11-09</t>
+  </si>
+  <si>
+    <t>2017-11-27</t>
+  </si>
+  <si>
+    <t>2017-12-14</t>
+  </si>
+  <si>
+    <t>2018-01-02</t>
+  </si>
+  <si>
+    <t>2018-02-05</t>
+  </si>
+  <si>
+    <t>2018-02-15</t>
+  </si>
+  <si>
+    <t>2018-03-05</t>
+  </si>
+  <si>
+    <t>2018-03-15</t>
+  </si>
+  <si>
+    <t>2018-03-26</t>
+  </si>
+  <si>
+    <t>2018-04-05</t>
+  </si>
+  <si>
+    <t>2012-11-30</t>
+  </si>
+  <si>
+    <t>2013-05-28</t>
+  </si>
+  <si>
+    <t>2014-05-12</t>
+  </si>
+  <si>
+    <t>2015-02-26</t>
+  </si>
+  <si>
+    <t>2013-07-29</t>
+  </si>
+  <si>
+    <t>2013-10-07</t>
+  </si>
+  <si>
+    <t>2014-01-21</t>
+  </si>
+  <si>
+    <t>2015-06-04</t>
+  </si>
+  <si>
+    <t>2016-08-09</t>
+  </si>
+  <si>
+    <t>2016-11-21</t>
+  </si>
+  <si>
+    <t>2017-02-02</t>
+  </si>
+  <si>
+    <t>2017-02-13</t>
+  </si>
+  <si>
+    <t>2017-03-02</t>
+  </si>
+  <si>
+    <t>2017-03-16</t>
+  </si>
+  <si>
+    <t>2012-11-23</t>
+  </si>
+  <si>
+    <t>2013-05-24</t>
+  </si>
+  <si>
+    <t>2014-06-11</t>
+  </si>
+  <si>
+    <t>2014-06-16</t>
+  </si>
+  <si>
+    <t>2014-06-23</t>
+  </si>
+  <si>
+    <t>2014-07-07</t>
+  </si>
+  <si>
+    <t>2014-08-07</t>
+  </si>
+  <si>
+    <t>2014-08-21</t>
+  </si>
+  <si>
+    <t>2014-09-08</t>
+  </si>
+  <si>
+    <t>2015-01-15</t>
+  </si>
+  <si>
+    <t>2015-05-29</t>
+  </si>
+  <si>
+    <t>2016-07-08</t>
+  </si>
+  <si>
+    <t>2016-08-01</t>
+  </si>
+  <si>
+    <t>2016-08-08</t>
+  </si>
+  <si>
+    <t>2016-09-19</t>
+  </si>
+  <si>
+    <t>2016-10-03</t>
+  </si>
+  <si>
+    <t>2016-10-10</t>
+  </si>
+  <si>
+    <t>2013-11-01</t>
+  </si>
+  <si>
     <t>2015-06-01</t>
   </si>
   <si>
-    <t>2015-06-08</t>
-  </si>
-  <si>
-    <t>2015-06-15</t>
-  </si>
-  <si>
-    <t>2015-06-17</t>
-  </si>
-  <si>
-    <t>2015-10-01</t>
-  </si>
-  <si>
-    <t>2015-12-14</t>
-  </si>
-  <si>
-    <t>2015-12-21</t>
-  </si>
-  <si>
-    <t>2015-12-30</t>
-  </si>
-  <si>
-    <t>2016-01-21</t>
-  </si>
-  <si>
-    <t>2016-01-28</t>
-  </si>
-  <si>
-    <t>2016-02-01</t>
-  </si>
-  <si>
-    <t>2016-02-15</t>
-  </si>
-  <si>
-    <t>2016-03-03</t>
-  </si>
-  <si>
-    <t>2016-03-10</t>
-  </si>
-  <si>
-    <t>2016-03-21</t>
-  </si>
-  <si>
-    <t>2017-05-22</t>
-  </si>
-  <si>
-    <t>2017-06-14</t>
-  </si>
-  <si>
-    <t>2012-10-17</t>
-  </si>
-  <si>
-    <t>2014-08-06</t>
-  </si>
-  <si>
-    <t>2014-09-29</t>
-  </si>
-  <si>
-    <t>2014-10-06</t>
-  </si>
-  <si>
-    <t>2014-10-30</t>
-  </si>
-  <si>
-    <t>2014-12-11</t>
-  </si>
-  <si>
-    <t>2015-01-22</t>
-  </si>
-  <si>
-    <t>2015-02-02</t>
-  </si>
-  <si>
-    <t>2017-06-28</t>
-  </si>
-  <si>
-    <t>2017-09-13</t>
-  </si>
-  <si>
-    <t>2017-10-16</t>
-  </si>
-  <si>
-    <t>2017-10-23</t>
-  </si>
-  <si>
-    <t>2017-11-09</t>
-  </si>
-  <si>
-    <t>2017-11-27</t>
-  </si>
-  <si>
-    <t>2017-12-14</t>
-  </si>
-  <si>
-    <t>2018-01-02</t>
-  </si>
-  <si>
-    <t>2018-02-05</t>
-  </si>
-  <si>
-    <t>2018-02-15</t>
-  </si>
-  <si>
-    <t>2018-03-05</t>
-  </si>
-  <si>
-    <t>2018-03-15</t>
-  </si>
-  <si>
-    <t>2018-03-26</t>
-  </si>
-  <si>
-    <t>2018-04-05</t>
-  </si>
-  <si>
-    <t>2012-11-30</t>
-  </si>
-  <si>
-    <t>2013-05-28</t>
-  </si>
-  <si>
-    <t>2014-05-12</t>
-  </si>
-  <si>
-    <t>2015-02-26</t>
-  </si>
-  <si>
-    <t>2013-10-07</t>
-  </si>
-  <si>
-    <t>2014-01-21</t>
-  </si>
-  <si>
-    <t>2015-06-04</t>
-  </si>
-  <si>
-    <t>2016-08-09</t>
-  </si>
-  <si>
-    <t>2016-11-21</t>
-  </si>
-  <si>
-    <t>2017-02-02</t>
-  </si>
-  <si>
-    <t>2017-02-13</t>
-  </si>
-  <si>
-    <t>2017-03-02</t>
-  </si>
-  <si>
-    <t>2017-03-16</t>
-  </si>
-  <si>
-    <t>2012-11-23</t>
-  </si>
-  <si>
-    <t>2013-05-24</t>
-  </si>
-  <si>
-    <t>2014-06-11</t>
-  </si>
-  <si>
-    <t>2014-06-16</t>
-  </si>
-  <si>
-    <t>2014-06-23</t>
-  </si>
-  <si>
-    <t>2014-07-07</t>
-  </si>
-  <si>
-    <t>2014-08-07</t>
-  </si>
-  <si>
-    <t>2014-08-21</t>
-  </si>
-  <si>
-    <t>2014-09-08</t>
-  </si>
-  <si>
-    <t>2015-01-15</t>
-  </si>
-  <si>
-    <t>2015-05-29</t>
-  </si>
-  <si>
-    <t>2016-07-08</t>
-  </si>
-  <si>
-    <t>2016-08-01</t>
-  </si>
-  <si>
-    <t>2016-08-08</t>
-  </si>
-  <si>
-    <t>2016-09-19</t>
-  </si>
-  <si>
-    <t>2016-10-03</t>
-  </si>
-  <si>
-    <t>2016-10-10</t>
-  </si>
-  <si>
-    <t>2013-11-01</t>
-  </si>
-  <si>
     <t>2015-07-20</t>
   </si>
   <si>
@@ -689,12 +689,6 @@
   </si>
   <si>
     <t>2015-05-25</t>
-  </si>
-  <si>
-    <t>2015-06-03</t>
-  </si>
-  <si>
-    <t>2015-06-09</t>
   </si>
   <si>
     <t>2015-11-30</t>
@@ -1085,7 +1079,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L149"/>
+  <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1128,7 +1122,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>50</v>
+        <v>1096</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -1166,7 +1160,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>49</v>
+        <v>1157</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1175,7 +1169,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E3">
         <v>61</v>
@@ -1204,7 +1198,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>47</v>
+        <v>1334</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1242,7 +1236,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>46</v>
+        <v>1815</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1251,7 +1245,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E5">
         <v>481</v>
@@ -1280,7 +1274,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>41</v>
+        <v>1869</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1289,7 +1283,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -1318,7 +1312,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>38</v>
+        <v>1876</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1327,7 +1321,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -1356,7 +1350,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>29</v>
+        <v>1900</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1365,7 +1359,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -1394,7 +1388,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>19</v>
+        <v>1935</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1432,7 +1426,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>18</v>
+        <v>1940</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1470,7 +1464,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
-        <v>17</v>
+        <v>1942</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1479,7 +1473,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1508,7 +1502,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
-        <v>7</v>
+        <v>1984</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1517,7 +1511,7 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1546,7 +1540,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>1992</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1584,7 +1578,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1593,7 +1587,7 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1622,1291 +1616,1291 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
       <c r="E15">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>3.02</v>
       </c>
-      <c r="H15">
-        <v>12.79</v>
-      </c>
       <c r="I15">
-        <v>9.77</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1993877551020408</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>20.24285714285714</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.440844022331395</v>
+        <v>0.0519479799854823</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
       <c r="E16">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F16">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="G16">
+        <v>3.02</v>
+      </c>
+      <c r="H16">
         <v>12.79</v>
       </c>
-      <c r="H16">
-        <v>36.56</v>
-      </c>
       <c r="I16">
-        <v>23.77</v>
+        <v>9.77</v>
       </c>
       <c r="J16">
-        <v>0.4484905660377359</v>
+        <v>0.1993877551020408</v>
       </c>
       <c r="K16">
-        <v>21.23396226415094</v>
+        <v>20.24285714285714</v>
       </c>
       <c r="L16">
-        <v>0.6049992740008709</v>
+        <v>0.440844022331395</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
       <c r="E17">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="F17">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="G17">
+        <v>12.79</v>
+      </c>
+      <c r="H17">
         <v>36.56</v>
       </c>
-      <c r="H17">
-        <v>72</v>
-      </c>
       <c r="I17">
-        <v>35.44</v>
+        <v>23.77</v>
       </c>
       <c r="J17">
-        <v>0.4073563218390804</v>
+        <v>0.4484905660377359</v>
       </c>
       <c r="K17">
-        <v>19.63563218390805</v>
+        <v>21.23396226415094</v>
       </c>
       <c r="L17">
-        <v>0.974968383168146</v>
+        <v>0.6049992740008709</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
         <v>36</v>
       </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
       <c r="E18">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="F18">
-        <v>306</v>
+        <v>190</v>
       </c>
       <c r="G18">
+        <v>36.56</v>
+      </c>
+      <c r="H18">
         <v>72</v>
       </c>
-      <c r="H18">
-        <v>123.96</v>
-      </c>
       <c r="I18">
-        <v>51.95999999999999</v>
+        <v>35.44</v>
       </c>
       <c r="J18">
-        <v>0.4479310344827586</v>
+        <v>0.4073563218390804</v>
       </c>
       <c r="K18">
-        <v>16.11465517241379</v>
+        <v>19.63563218390805</v>
       </c>
       <c r="L18">
-        <v>0.9031435965476931</v>
+        <v>0.974968383168146</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>69</v>
+        <v>305</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
         <v>37</v>
       </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
       <c r="E19">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F19">
-        <v>421</v>
+        <v>306</v>
       </c>
       <c r="G19">
+        <v>72</v>
+      </c>
+      <c r="H19">
         <v>123.96</v>
       </c>
-      <c r="H19">
-        <v>152.1</v>
-      </c>
       <c r="I19">
-        <v>28.14</v>
+        <v>51.95999999999999</v>
       </c>
       <c r="J19">
-        <v>0.244695652173913</v>
+        <v>0.4479310344827586</v>
       </c>
       <c r="K19">
-        <v>16.45913043478261</v>
+        <v>16.11465517241379</v>
       </c>
       <c r="L19">
-        <v>2.05703900861452</v>
+        <v>0.9031435965476931</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>68</v>
+        <v>420</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
         <v>38</v>
       </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
       <c r="E20">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="F20">
-        <v>509</v>
+        <v>421</v>
       </c>
       <c r="G20">
+        <v>123.96</v>
+      </c>
+      <c r="H20">
         <v>152.1</v>
       </c>
-      <c r="H20">
-        <v>254</v>
-      </c>
       <c r="I20">
-        <v>101.9</v>
+        <v>28.14</v>
       </c>
       <c r="J20">
-        <v>1.157954545454545</v>
+        <v>0.244695652173913</v>
       </c>
       <c r="K20">
-        <v>22.50113636363636</v>
+        <v>16.45913043478261</v>
       </c>
       <c r="L20">
-        <v>1.61165549252192</v>
+        <v>2.05703900861452</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>67</v>
+        <v>508</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" t="s">
-        <v>165</v>
-      </c>
       <c r="E21">
-        <v>281</v>
+        <v>88</v>
       </c>
       <c r="F21">
-        <v>790</v>
+        <v>509</v>
       </c>
       <c r="G21">
+        <v>152.1</v>
+      </c>
+      <c r="H21">
         <v>254</v>
       </c>
-      <c r="H21">
-        <v>356.7</v>
-      </c>
       <c r="I21">
-        <v>102.7</v>
+        <v>101.9</v>
       </c>
       <c r="J21">
-        <v>0.3654804270462633</v>
+        <v>1.157954545454545</v>
       </c>
       <c r="K21">
-        <v>17.59395017793594</v>
+        <v>22.50113636363636</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.61165549252192</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>64</v>
+        <v>789</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>281</v>
       </c>
       <c r="F22">
-        <v>867</v>
+        <v>790</v>
       </c>
       <c r="G22">
-        <v>345.5</v>
+        <v>254</v>
       </c>
       <c r="H22">
-        <v>340</v>
+        <v>356.7</v>
       </c>
       <c r="I22">
-        <v>-5.5</v>
+        <v>102.7</v>
       </c>
       <c r="J22">
-        <v>-2.75</v>
+        <v>0.3654804270462633</v>
       </c>
       <c r="K22">
-        <v>20.55</v>
+        <v>17.59395017793594</v>
       </c>
       <c r="L22">
-        <v>0.134861039185224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>55</v>
+        <v>866</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>896</v>
+        <v>867</v>
       </c>
       <c r="G23">
-        <v>420.5</v>
+        <v>345.5</v>
       </c>
       <c r="H23">
-        <v>416.8</v>
+        <v>340</v>
       </c>
       <c r="I23">
-        <v>-3.699999999999989</v>
+        <v>-5.5</v>
       </c>
       <c r="J23">
-        <v>-1.23333333333333</v>
+        <v>-2.75</v>
       </c>
       <c r="K23">
-        <v>22</v>
+        <v>20.55</v>
       </c>
       <c r="L23">
-        <v>0.658686316011347</v>
+        <v>0.134861039185224</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
-        <v>54</v>
+        <v>895</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
         <v>42</v>
       </c>
-      <c r="D24" t="s">
-        <v>167</v>
-      </c>
       <c r="E24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="G24">
+        <v>420.5</v>
+      </c>
+      <c r="H24">
         <v>416.8</v>
       </c>
-      <c r="H24">
-        <v>411.3</v>
-      </c>
       <c r="I24">
-        <v>-5.5</v>
+        <v>-3.699999999999989</v>
       </c>
       <c r="J24">
-        <v>-1.375</v>
+        <v>-1.23333333333333</v>
       </c>
       <c r="K24">
-        <v>22.225</v>
+        <v>22</v>
       </c>
       <c r="L24">
-        <v>0.902144397232221</v>
+        <v>0.658686316011347</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1">
-        <v>52</v>
+        <v>899</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
       <c r="F25">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="G25">
-        <v>432.7</v>
+        <v>416.8</v>
       </c>
       <c r="H25">
-        <v>427.1</v>
+        <v>411.3</v>
       </c>
       <c r="I25">
-        <v>-5.599999999999966</v>
+        <v>-5.5</v>
       </c>
       <c r="J25">
-        <v>-1.399999999999991</v>
+        <v>-1.375</v>
       </c>
       <c r="K25">
-        <v>21.15</v>
+        <v>22.225</v>
       </c>
       <c r="L25">
-        <v>0.471009373086525</v>
+        <v>0.902144397232221</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1">
-        <v>49</v>
+        <v>906</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="G26">
-        <v>456</v>
+        <v>432.7</v>
       </c>
       <c r="H26">
-        <v>462.3</v>
+        <v>427.1</v>
       </c>
       <c r="I26">
-        <v>6.300000000000011</v>
+        <v>-5.599999999999966</v>
       </c>
       <c r="J26">
-        <v>2.100000000000004</v>
+        <v>-1.399999999999991</v>
       </c>
       <c r="K26">
-        <v>19.46666666666667</v>
+        <v>21.15</v>
       </c>
       <c r="L26">
-        <v>1.0058844238797</v>
+        <v>0.471009373086525</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1">
-        <v>48</v>
+        <v>916</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
         <v>45</v>
       </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
       <c r="E27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="G27">
+        <v>456</v>
+      </c>
+      <c r="H27">
         <v>462.3</v>
       </c>
-      <c r="H27">
-        <v>450.2</v>
-      </c>
       <c r="I27">
-        <v>-12.10000000000002</v>
+        <v>6.300000000000011</v>
       </c>
       <c r="J27">
-        <v>-3.025000000000006</v>
+        <v>2.100000000000004</v>
       </c>
       <c r="K27">
-        <v>19.775</v>
+        <v>19.46666666666667</v>
       </c>
       <c r="L27">
-        <v>0.900465154571276</v>
+        <v>1.0058844238797</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1">
-        <v>47</v>
+        <v>920</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
         <v>46</v>
       </c>
-      <c r="D28" t="s">
-        <v>169</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="G28">
+        <v>462.3</v>
+      </c>
+      <c r="H28">
         <v>450.2</v>
       </c>
-      <c r="H28">
-        <v>453.7</v>
-      </c>
       <c r="I28">
-        <v>3.5</v>
+        <v>-12.10000000000002</v>
       </c>
       <c r="J28">
-        <v>1.166666666666667</v>
+        <v>-3.025000000000006</v>
       </c>
       <c r="K28">
-        <v>19.36666666666667</v>
+        <v>19.775</v>
       </c>
       <c r="L28">
-        <v>0.9104435681063811</v>
+        <v>0.900465154571276</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1">
-        <v>42</v>
+        <v>923</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>942</v>
+        <v>924</v>
       </c>
       <c r="G29">
-        <v>465.7</v>
+        <v>450.2</v>
       </c>
       <c r="H29">
-        <v>466.6</v>
+        <v>453.7</v>
       </c>
       <c r="I29">
-        <v>0.9000000000000341</v>
+        <v>3.5</v>
       </c>
       <c r="J29">
-        <v>0.2250000000000085</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="K29">
-        <v>17.825</v>
+        <v>19.36666666666667</v>
       </c>
       <c r="L29">
-        <v>0.859411704041527</v>
+        <v>0.9104435681063811</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1">
-        <v>37</v>
+        <v>941</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>959</v>
+        <v>942</v>
       </c>
       <c r="G30">
-        <v>465.4</v>
+        <v>465.7</v>
       </c>
       <c r="H30">
-        <v>461.9</v>
+        <v>466.6</v>
       </c>
       <c r="I30">
-        <v>-3.5</v>
+        <v>0.9000000000000341</v>
       </c>
       <c r="J30">
-        <v>-1.166666666666667</v>
+        <v>0.2250000000000085</v>
       </c>
       <c r="K30">
-        <v>15.6</v>
+        <v>17.825</v>
       </c>
       <c r="L30">
-        <v>0.9444892202297001</v>
+        <v>0.859411704041527</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1">
-        <v>32</v>
+        <v>958</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>978</v>
+        <v>959</v>
       </c>
       <c r="G31">
-        <v>468.1</v>
+        <v>465.4</v>
       </c>
       <c r="H31">
-        <v>477.9</v>
+        <v>461.9</v>
       </c>
       <c r="I31">
-        <v>9.799999999999955</v>
+        <v>-3.5</v>
       </c>
       <c r="J31">
-        <v>1.959999999999991</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="K31">
-        <v>15.08</v>
+        <v>15.6</v>
       </c>
       <c r="L31">
-        <v>1.16048218927643</v>
+        <v>0.9444892202297001</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1">
-        <v>28</v>
+        <v>977</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="G32">
-        <v>476.9</v>
+        <v>468.1</v>
       </c>
       <c r="H32">
-        <v>460.7</v>
+        <v>477.9</v>
       </c>
       <c r="I32">
-        <v>-16.19999999999999</v>
+        <v>9.799999999999955</v>
       </c>
       <c r="J32">
-        <v>-4.049999999999997</v>
+        <v>1.959999999999991</v>
       </c>
       <c r="K32">
-        <v>13.8</v>
+        <v>15.08</v>
       </c>
       <c r="L32">
-        <v>1.11681476307282</v>
+        <v>1.16048218927643</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1">
-        <v>27</v>
+        <v>990</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
       </c>
       <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
         <v>51</v>
       </c>
-      <c r="D33" t="s">
-        <v>52</v>
-      </c>
       <c r="E33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="G33">
+        <v>476.9</v>
+      </c>
+      <c r="H33">
         <v>460.7</v>
       </c>
-      <c r="H33">
-        <v>461.9</v>
-      </c>
       <c r="I33">
-        <v>1.199999999999989</v>
+        <v>-16.19999999999999</v>
       </c>
       <c r="J33">
-        <v>0.3999999999999962</v>
+        <v>-4.049999999999997</v>
       </c>
       <c r="K33">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="L33">
-        <v>1.15178421846205</v>
+        <v>1.11681476307282</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1">
-        <v>26</v>
+        <v>993</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
         <v>52</v>
       </c>
-      <c r="D34" t="s">
-        <v>53</v>
-      </c>
       <c r="E34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="G34">
+        <v>460.7</v>
+      </c>
+      <c r="H34">
         <v>461.9</v>
       </c>
-      <c r="H34">
-        <v>450.7</v>
-      </c>
       <c r="I34">
-        <v>-11.19999999999999</v>
+        <v>1.199999999999989</v>
       </c>
       <c r="J34">
-        <v>-2.799999999999997</v>
+        <v>0.3999999999999962</v>
       </c>
       <c r="K34">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="L34">
-        <v>1.20715690405956</v>
+        <v>1.15178421846205</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1">
-        <v>25</v>
+        <v>997</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
         <v>53</v>
       </c>
-      <c r="D35" t="s">
-        <v>54</v>
-      </c>
       <c r="E35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="G35">
+        <v>461.9</v>
+      </c>
+      <c r="H35">
         <v>450.7</v>
       </c>
-      <c r="H35">
-        <v>450.9</v>
-      </c>
       <c r="I35">
-        <v>0.1999999999999886</v>
+        <v>-11.19999999999999</v>
       </c>
       <c r="J35">
-        <v>0.06666666666666288</v>
+        <v>-2.799999999999997</v>
       </c>
       <c r="K35">
-        <v>13.96666666666667</v>
+        <v>14.2</v>
       </c>
       <c r="L35">
-        <v>1.34386926839757</v>
+        <v>1.20715690405956</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
       </c>
       <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
         <v>54</v>
       </c>
-      <c r="D36" t="s">
-        <v>55</v>
-      </c>
       <c r="E36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="G36">
+        <v>450.7</v>
+      </c>
+      <c r="H36">
         <v>450.9</v>
       </c>
-      <c r="H36">
-        <v>451.9</v>
-      </c>
       <c r="I36">
-        <v>1</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="J36">
-        <v>0.25</v>
+        <v>0.06666666666666288</v>
       </c>
       <c r="K36">
-        <v>13.075</v>
+        <v>13.96666666666667</v>
       </c>
       <c r="L36">
-        <v>1.40048176572741</v>
+        <v>1.34386926839757</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1">
-        <v>23</v>
+        <v>1004</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
       </c>
       <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
         <v>55</v>
       </c>
-      <c r="D37" t="s">
-        <v>56</v>
-      </c>
       <c r="E37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="G37">
+        <v>450.9</v>
+      </c>
+      <c r="H37">
         <v>451.9</v>
       </c>
-      <c r="H37">
-        <v>451.6</v>
-      </c>
       <c r="I37">
-        <v>-0.2999999999999545</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>-0.09999999999998484</v>
+        <v>0.25</v>
       </c>
       <c r="K37">
-        <v>13.53333333333333</v>
+        <v>13.075</v>
       </c>
       <c r="L37">
-        <v>1.53600393217007</v>
+        <v>1.40048176572741</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1">
-        <v>22</v>
+        <v>1007</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
         <v>56</v>
       </c>
-      <c r="D38" t="s">
-        <v>173</v>
-      </c>
       <c r="E38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="G38">
+        <v>451.9</v>
+      </c>
+      <c r="H38">
         <v>451.6</v>
       </c>
-      <c r="H38">
-        <v>459.8</v>
-      </c>
       <c r="I38">
-        <v>8.199999999999989</v>
+        <v>-0.2999999999999545</v>
       </c>
       <c r="J38">
-        <v>2.049999999999997</v>
+        <v>-0.09999999999998484</v>
       </c>
       <c r="K38">
-        <v>13.3</v>
+        <v>13.53333333333333</v>
       </c>
       <c r="L38">
-        <v>1.84508129712054</v>
+        <v>1.53600393217007</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1">
-        <v>19</v>
+        <v>1011</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="G39">
-        <v>459.4</v>
+        <v>451.6</v>
       </c>
       <c r="H39">
-        <v>465.7</v>
+        <v>459.8</v>
       </c>
       <c r="I39">
-        <v>6.300000000000011</v>
+        <v>8.199999999999989</v>
       </c>
       <c r="J39">
-        <v>2.100000000000004</v>
+        <v>2.049999999999997</v>
       </c>
       <c r="K39">
-        <v>13.7</v>
+        <v>13.3</v>
       </c>
       <c r="L39">
-        <v>1.76757938038308</v>
+        <v>1.84508129712054</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1">
-        <v>14</v>
+        <v>1021</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40">
-        <v>1040</v>
+        <v>1022</v>
       </c>
       <c r="G40">
-        <v>452.2</v>
+        <v>459.4</v>
       </c>
       <c r="H40">
-        <v>440.4</v>
+        <v>465.7</v>
       </c>
       <c r="I40">
-        <v>-11.80000000000001</v>
+        <v>6.300000000000011</v>
       </c>
       <c r="J40">
-        <v>-2.950000000000003</v>
+        <v>2.100000000000004</v>
       </c>
       <c r="K40">
-        <v>14.775</v>
+        <v>13.7</v>
       </c>
       <c r="L40">
-        <v>2.68981099594735</v>
+        <v>1.76757938038308</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1">
-        <v>11</v>
+        <v>1039</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="G41">
-        <v>448.2</v>
+        <v>452.2</v>
       </c>
       <c r="H41">
-        <v>448.6</v>
+        <v>440.4</v>
       </c>
       <c r="I41">
-        <v>0.4000000000000341</v>
+        <v>-11.80000000000001</v>
       </c>
       <c r="J41">
-        <v>0.1333333333333447</v>
+        <v>-2.950000000000003</v>
       </c>
       <c r="K41">
-        <v>15.23333333333333</v>
+        <v>14.775</v>
       </c>
       <c r="L41">
-        <v>3.46228418428585</v>
+        <v>2.68981099594735</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1">
-        <v>8</v>
+        <v>1049</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="G42">
-        <v>451.7</v>
+        <v>448.2</v>
       </c>
       <c r="H42">
-        <v>451.1</v>
+        <v>448.6</v>
       </c>
       <c r="I42">
-        <v>-0.5999999999999659</v>
+        <v>0.4000000000000341</v>
       </c>
       <c r="J42">
-        <v>-0.1499999999999915</v>
+        <v>0.1333333333333447</v>
       </c>
       <c r="K42">
-        <v>14.625</v>
+        <v>15.23333333333333</v>
       </c>
       <c r="L42">
-        <v>5.50014667057788</v>
+        <v>3.46228418428585</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1">
-        <v>4</v>
+        <v>1060</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="G43">
-        <v>427</v>
+        <v>451.7</v>
       </c>
       <c r="H43">
-        <v>415</v>
+        <v>451.1</v>
       </c>
       <c r="I43">
-        <v>-12</v>
+        <v>-0.5999999999999659</v>
       </c>
       <c r="J43">
-        <v>-4</v>
+        <v>-0.1499999999999915</v>
       </c>
       <c r="K43">
-        <v>15.16666666666667</v>
+        <v>14.625</v>
       </c>
       <c r="L43">
-        <v>22.8744369369369</v>
+        <v>5.50014667057788</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1">
-        <v>27</v>
+        <v>1070</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E44">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>178</v>
+        <v>1071</v>
       </c>
       <c r="G44">
-        <v>50.6</v>
+        <v>427</v>
       </c>
       <c r="H44">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="I44">
-        <v>30.4</v>
+        <v>-12</v>
       </c>
       <c r="J44">
-        <v>0.5241379310344827</v>
+        <v>-4</v>
       </c>
       <c r="K44">
-        <v>17.22586206896552</v>
+        <v>15.16666666666667</v>
       </c>
       <c r="L44">
-        <v>0.702214315809185</v>
+        <v>22.8744369369369</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1">
-        <v>25</v>
+        <v>2171</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
-      <c r="C45" t="s">
-        <v>63</v>
+      <c r="C45">
+        <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="E45">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>357</v>
+        <v>120</v>
       </c>
       <c r="G45">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>114</v>
+        <v>50.6</v>
       </c>
       <c r="I45">
-        <v>41.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>0.4988095238095239</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>18.00238095238096</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>1.33675542722703</v>
+        <v>0.448406363783115</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1">
-        <v>14</v>
+        <v>2229</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F46">
-        <v>706</v>
+        <v>178</v>
       </c>
       <c r="G46">
-        <v>406.1</v>
+        <v>50.6</v>
       </c>
       <c r="H46">
-        <v>407.1</v>
+        <v>81</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>30.4</v>
       </c>
       <c r="J46">
-        <v>0.25</v>
+        <v>0.5241379310344827</v>
       </c>
       <c r="K46">
-        <v>20.35</v>
+        <v>17.22586206896552</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>0.702214315809185</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1">
-        <v>3</v>
+        <v>2408</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="E47">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="F47">
-        <v>993</v>
+        <v>357</v>
       </c>
       <c r="G47">
-        <v>385.7</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="H47">
-        <v>470</v>
+        <v>114</v>
       </c>
       <c r="I47">
-        <v>84.30000000000001</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="J47">
-        <v>0.5335443037974684</v>
+        <v>0.4988095238095239</v>
       </c>
       <c r="K47">
-        <v>16.82721518987342</v>
+        <v>18.00238095238096</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1.33675542722703</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1">
-        <v>2</v>
+        <v>2757</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F48">
-        <v>996</v>
+        <v>706</v>
       </c>
       <c r="G48">
-        <v>470</v>
+        <v>406.1</v>
       </c>
       <c r="H48">
-        <v>470.6</v>
+        <v>407.1</v>
       </c>
       <c r="I48">
-        <v>0.6000000000000227</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0.2000000000000076</v>
+        <v>0.25</v>
       </c>
       <c r="K48">
-        <v>14.3</v>
+        <v>20.35</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -2914,1282 +2908,1282 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1">
-        <v>20</v>
+        <v>3044</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E49">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="F49">
-        <v>50</v>
+        <v>993</v>
       </c>
       <c r="G49">
-        <v>33.67</v>
+        <v>385.7</v>
       </c>
       <c r="H49">
-        <v>38.69</v>
+        <v>470</v>
       </c>
       <c r="I49">
-        <v>5.019999999999996</v>
+        <v>84.30000000000001</v>
       </c>
       <c r="J49">
-        <v>0.7171428571428565</v>
+        <v>0.5335443037974684</v>
       </c>
       <c r="K49">
-        <v>23.11428571428572</v>
+        <v>16.82721518987342</v>
       </c>
       <c r="L49">
-        <v>1.41707465959064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1">
-        <v>19</v>
+        <v>3047</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="E50">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F50">
-        <v>59</v>
+        <v>996</v>
       </c>
       <c r="G50">
-        <v>38.69</v>
+        <v>470</v>
       </c>
       <c r="H50">
-        <v>41.57</v>
+        <v>470.6</v>
       </c>
       <c r="I50">
-        <v>2.880000000000003</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="J50">
-        <v>0.3200000000000003</v>
+        <v>0.2000000000000076</v>
       </c>
       <c r="K50">
-        <v>22.57777777777778</v>
+        <v>14.3</v>
       </c>
       <c r="L50">
-        <v>1.59954956684198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1">
-        <v>18</v>
+        <v>3060</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
       </c>
-      <c r="C51" t="s">
-        <v>69</v>
+      <c r="C51">
+        <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>41.57</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>45.81</v>
+        <v>11.7</v>
       </c>
       <c r="I51">
-        <v>4.240000000000002</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>0.8480000000000004</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>22.84</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>1.49180157741802</v>
+        <v>0.377217062866266</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1">
-        <v>17</v>
+        <v>3109</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="E52">
         <v>7</v>
       </c>
       <c r="F52">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G52">
-        <v>45.81</v>
+        <v>33.67</v>
       </c>
       <c r="H52">
-        <v>48.03</v>
+        <v>38.69</v>
       </c>
       <c r="I52">
-        <v>2.219999999999999</v>
+        <v>5.019999999999996</v>
       </c>
       <c r="J52">
-        <v>0.317142857142857</v>
+        <v>0.7171428571428565</v>
       </c>
       <c r="K52">
-        <v>21.92857142857143</v>
+        <v>23.11428571428572</v>
       </c>
       <c r="L52">
-        <v>1.45307556653435</v>
+        <v>1.41707465959064</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1">
-        <v>14</v>
+        <v>3118</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D53" t="s">
-        <v>184</v>
+        <v>69</v>
       </c>
       <c r="E53">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="F53">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="G53">
-        <v>65.26000000000001</v>
+        <v>38.69</v>
       </c>
       <c r="H53">
-        <v>92</v>
+        <v>41.57</v>
       </c>
       <c r="I53">
-        <v>26.73999999999999</v>
+        <v>2.880000000000003</v>
       </c>
       <c r="J53">
-        <v>0.2938461538461538</v>
+        <v>0.3200000000000003</v>
       </c>
       <c r="K53">
-        <v>16.12857142857142</v>
+        <v>22.57777777777778</v>
       </c>
       <c r="L53">
-        <v>0.73026282158949</v>
+        <v>1.59954956684198</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1">
-        <v>12</v>
+        <v>3123</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D54" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E54">
-        <v>238</v>
+        <v>5</v>
       </c>
       <c r="F54">
-        <v>485</v>
+        <v>64</v>
       </c>
       <c r="G54">
-        <v>99.5</v>
+        <v>41.57</v>
       </c>
       <c r="H54">
-        <v>283.96</v>
+        <v>45.81</v>
       </c>
       <c r="I54">
-        <v>184.46</v>
+        <v>4.240000000000002</v>
       </c>
       <c r="J54">
-        <v>0.7750420168067226</v>
+        <v>0.8480000000000004</v>
       </c>
       <c r="K54">
-        <v>19.2873949579832</v>
+        <v>22.84</v>
       </c>
       <c r="L54">
-        <v>2.32697294062895</v>
+        <v>1.49180157741802</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1">
-        <v>11</v>
+        <v>3130</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="E55">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="F55">
-        <v>597</v>
+        <v>71</v>
       </c>
       <c r="G55">
-        <v>283.96</v>
+        <v>45.81</v>
       </c>
       <c r="H55">
-        <v>315.51</v>
+        <v>48.03</v>
       </c>
       <c r="I55">
-        <v>31.55000000000001</v>
+        <v>2.219999999999999</v>
       </c>
       <c r="J55">
-        <v>0.2816964285714287</v>
+        <v>0.317142857142857</v>
       </c>
       <c r="K55">
-        <v>14.58125</v>
+        <v>21.92857142857143</v>
       </c>
       <c r="L55">
-        <v>1.83123351889833</v>
+        <v>1.45307556653435</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1">
-        <v>10</v>
+        <v>3236</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E56">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F56">
-        <v>676</v>
+        <v>177</v>
       </c>
       <c r="G56">
-        <v>315.51</v>
+        <v>65.26000000000001</v>
       </c>
       <c r="H56">
-        <v>372</v>
+        <v>92</v>
       </c>
       <c r="I56">
-        <v>56.49000000000001</v>
+        <v>26.73999999999999</v>
       </c>
       <c r="J56">
-        <v>0.7150632911392406</v>
+        <v>0.2938461538461538</v>
       </c>
       <c r="K56">
-        <v>17.91645569620253</v>
+        <v>16.12857142857142</v>
       </c>
       <c r="L56">
-        <v>4.38531392101038</v>
+        <v>0.73026282158949</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1">
-        <v>52</v>
+        <v>3544</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D57" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E57">
-        <v>67</v>
+        <v>238</v>
       </c>
       <c r="F57">
-        <v>68</v>
+        <v>485</v>
       </c>
       <c r="G57">
-        <v>2.94</v>
+        <v>99.5</v>
       </c>
       <c r="H57">
-        <v>17.9</v>
+        <v>283.96</v>
       </c>
       <c r="I57">
-        <v>14.96</v>
+        <v>184.46</v>
       </c>
       <c r="J57">
-        <v>0.2232835820895522</v>
+        <v>0.7750420168067226</v>
       </c>
       <c r="K57">
-        <v>20.39999999999999</v>
+        <v>19.2873949579832</v>
       </c>
       <c r="L57">
-        <v>0.334122853260668</v>
+        <v>2.32697294062895</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1">
-        <v>51</v>
+        <v>3656</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D58" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E58">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="F58">
-        <v>85</v>
+        <v>597</v>
       </c>
       <c r="G58">
-        <v>17.9</v>
+        <v>283.96</v>
       </c>
       <c r="H58">
-        <v>20.14</v>
+        <v>315.51</v>
       </c>
       <c r="I58">
-        <v>2.240000000000002</v>
+        <v>31.55000000000001</v>
       </c>
       <c r="J58">
-        <v>0.1317647058823531</v>
+        <v>0.2816964285714287</v>
       </c>
       <c r="K58">
-        <v>16.47647058823529</v>
+        <v>14.58125</v>
       </c>
       <c r="L58">
-        <v>0.384597633955356</v>
+        <v>1.83123351889833</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1">
-        <v>50</v>
+        <v>3735</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D59" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="E59">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="F59">
-        <v>188</v>
+        <v>676</v>
       </c>
       <c r="G59">
-        <v>20.14</v>
+        <v>315.51</v>
       </c>
       <c r="H59">
-        <v>41.42</v>
+        <v>372</v>
       </c>
       <c r="I59">
-        <v>21.28</v>
+        <v>56.49000000000001</v>
       </c>
       <c r="J59">
-        <v>0.2066019417475728</v>
+        <v>0.7150632911392406</v>
       </c>
       <c r="K59">
-        <v>14.4126213592233</v>
+        <v>17.91645569620253</v>
       </c>
       <c r="L59">
-        <v>0.405561053160943</v>
+        <v>4.38531392101038</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1">
-        <v>48</v>
+        <v>3786</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
-      <c r="C60" t="s">
-        <v>34</v>
+      <c r="C60">
+        <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="E60">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>334</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>76.26000000000001</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>147.38</v>
+        <v>2.94</v>
       </c>
       <c r="I60">
-        <v>71.11999999999999</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>1.34188679245283</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>21.23396226415094</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>1.50579084134988</v>
+        <v>0.040374677002584</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1">
-        <v>47</v>
+        <v>4221</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E61">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="F61">
-        <v>488</v>
+        <v>68</v>
       </c>
       <c r="G61">
-        <v>147.38</v>
+        <v>2.94</v>
       </c>
       <c r="H61">
-        <v>250.08</v>
+        <v>17.9</v>
       </c>
       <c r="I61">
-        <v>102.7</v>
+        <v>14.96</v>
       </c>
       <c r="J61">
-        <v>0.666883116883117</v>
+        <v>0.2232835820895522</v>
       </c>
       <c r="K61">
-        <v>18.59415584415584</v>
+        <v>20.39999999999999</v>
       </c>
       <c r="L61">
-        <v>1.30732625634053</v>
+        <v>0.334122853260668</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1">
-        <v>46</v>
+        <v>4285</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E62">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="F62">
-        <v>579</v>
+        <v>85</v>
       </c>
       <c r="G62">
-        <v>250.08</v>
+        <v>17.9</v>
       </c>
       <c r="H62">
-        <v>261.6</v>
+        <v>20.14</v>
       </c>
       <c r="I62">
-        <v>11.52000000000001</v>
+        <v>2.240000000000002</v>
       </c>
       <c r="J62">
-        <v>0.1265934065934067</v>
+        <v>0.1317647058823531</v>
       </c>
       <c r="K62">
-        <v>14.46263736263737</v>
+        <v>16.47647058823529</v>
       </c>
       <c r="L62">
-        <v>1.09295351012949</v>
+        <v>0.384597633955356</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1">
-        <v>45</v>
+        <v>4652</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D63" t="s">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="E63">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F63">
-        <v>698</v>
+        <v>188</v>
       </c>
       <c r="G63">
-        <v>261.6</v>
+        <v>20.14</v>
       </c>
       <c r="H63">
-        <v>342.8</v>
+        <v>41.42</v>
       </c>
       <c r="I63">
-        <v>81.19999999999999</v>
+        <v>21.28</v>
       </c>
       <c r="J63">
-        <v>0.6823529411764705</v>
+        <v>0.2066019417475728</v>
       </c>
       <c r="K63">
-        <v>19.40336134453782</v>
+        <v>14.4126213592233</v>
       </c>
       <c r="L63">
-        <v>2.88197215571517</v>
+        <v>0.405561053160943</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1">
-        <v>36</v>
+        <v>7934</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="D64" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F64">
-        <v>802</v>
+        <v>334</v>
       </c>
       <c r="G64">
-        <v>450.5</v>
+        <v>76.26000000000001</v>
       </c>
       <c r="H64">
-        <v>467.6</v>
+        <v>147.38</v>
       </c>
       <c r="I64">
-        <v>17.10000000000002</v>
+        <v>71.11999999999999</v>
       </c>
       <c r="J64">
-        <v>4.275000000000006</v>
+        <v>1.34188679245283</v>
       </c>
       <c r="K64">
-        <v>17.425</v>
+        <v>21.23396226415094</v>
       </c>
       <c r="L64">
-        <v>1.57893528087823</v>
+        <v>1.50579084134988</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1">
-        <v>16</v>
+        <v>3870</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D65" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="E65">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="F65">
-        <v>875</v>
+        <v>488</v>
       </c>
       <c r="G65">
-        <v>461.9</v>
+        <v>147.38</v>
       </c>
       <c r="H65">
-        <v>471</v>
+        <v>250.08</v>
       </c>
       <c r="I65">
-        <v>9.100000000000023</v>
+        <v>102.7</v>
       </c>
       <c r="J65">
-        <v>1.300000000000003</v>
+        <v>0.666883116883117</v>
       </c>
       <c r="K65">
-        <v>14.95714285714286</v>
+        <v>18.59415584415584</v>
       </c>
       <c r="L65">
-        <v>0.586372698487159</v>
+        <v>1.30732625634053</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1">
-        <v>13</v>
+        <v>5580</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D66" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="F66">
-        <v>886</v>
+        <v>579</v>
       </c>
       <c r="G66">
-        <v>456</v>
+        <v>250.08</v>
       </c>
       <c r="H66">
-        <v>455</v>
+        <v>261.6</v>
       </c>
       <c r="I66">
-        <v>-1</v>
+        <v>11.52000000000001</v>
       </c>
       <c r="J66">
-        <v>-0.25</v>
+        <v>0.1265934065934067</v>
       </c>
       <c r="K66">
-        <v>14.35</v>
+        <v>14.46263736263737</v>
       </c>
       <c r="L66">
-        <v>1.14141352651123</v>
+        <v>1.09295351012949</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1">
-        <v>10</v>
+        <v>6697</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D67" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="E67">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="F67">
-        <v>893</v>
+        <v>698</v>
       </c>
       <c r="G67">
-        <v>455</v>
+        <v>261.6</v>
       </c>
       <c r="H67">
-        <v>467</v>
+        <v>342.8</v>
       </c>
       <c r="I67">
-        <v>12</v>
+        <v>81.19999999999999</v>
       </c>
       <c r="J67">
-        <v>3</v>
+        <v>0.6823529411764705</v>
       </c>
       <c r="K67">
-        <v>14.75</v>
+        <v>19.40336134453782</v>
       </c>
       <c r="L67">
-        <v>1.60607809194076</v>
+        <v>2.88197215571517</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1">
-        <v>9</v>
+        <v>6914</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D68" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F68">
-        <v>896</v>
+        <v>802</v>
       </c>
       <c r="G68">
-        <v>467</v>
+        <v>450.5</v>
       </c>
       <c r="H68">
-        <v>469</v>
+        <v>467.6</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>17.10000000000002</v>
       </c>
       <c r="J68">
-        <v>0.6666666666666666</v>
+        <v>4.275000000000006</v>
       </c>
       <c r="K68">
-        <v>14.63333333333333</v>
+        <v>17.425</v>
       </c>
       <c r="L68">
-        <v>1.74277842711638</v>
+        <v>1.57893528087823</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1">
-        <v>8</v>
+        <v>6792</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D69" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="E69">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F69">
-        <v>900</v>
+        <v>875</v>
       </c>
       <c r="G69">
-        <v>469</v>
+        <v>461.9</v>
       </c>
       <c r="H69">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="I69">
-        <v>-1</v>
+        <v>9.100000000000023</v>
       </c>
       <c r="J69">
-        <v>-0.25</v>
+        <v>1.300000000000003</v>
       </c>
       <c r="K69">
-        <v>15.325</v>
+        <v>14.95714285714286</v>
       </c>
       <c r="L69">
-        <v>2.11982736735212</v>
+        <v>0.586372698487159</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1">
-        <v>7</v>
+        <v>6771</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D70" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F70">
-        <v>903</v>
+        <v>886</v>
       </c>
       <c r="G70">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="H70">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="I70">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J70">
-        <v>3</v>
+        <v>-0.25</v>
       </c>
       <c r="K70">
-        <v>15.23333333333333</v>
+        <v>14.35</v>
       </c>
       <c r="L70">
-        <v>2.36383195561092</v>
+        <v>1.14141352651123</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1">
-        <v>3</v>
+        <v>6787</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D71" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>893</v>
+      </c>
+      <c r="G71">
+        <v>455</v>
+      </c>
+      <c r="H71">
+        <v>467</v>
+      </c>
+      <c r="I71">
+        <v>12</v>
+      </c>
+      <c r="J71">
         <v>3</v>
       </c>
-      <c r="F71">
-        <v>917</v>
-      </c>
-      <c r="G71">
-        <v>472</v>
-      </c>
-      <c r="H71">
-        <v>485</v>
-      </c>
-      <c r="I71">
-        <v>13</v>
-      </c>
-      <c r="J71">
-        <v>4.333333333333333</v>
-      </c>
       <c r="K71">
-        <v>15.43333333333333</v>
+        <v>14.75</v>
       </c>
       <c r="L71">
-        <v>3.85643767996709</v>
+        <v>1.60607809194076</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1">
-        <v>48</v>
+        <v>6795</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D72" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E72">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="F72">
-        <v>89</v>
+        <v>896</v>
       </c>
       <c r="G72">
-        <v>2.35</v>
+        <v>467</v>
       </c>
       <c r="H72">
-        <v>28.45</v>
+        <v>469</v>
       </c>
       <c r="I72">
-        <v>26.1</v>
+        <v>2</v>
       </c>
       <c r="J72">
-        <v>0.2965909090909091</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K72">
-        <v>20.16136363636364</v>
+        <v>14.63333333333333</v>
       </c>
       <c r="L72">
-        <v>0.865139827199921</v>
+        <v>1.74277842711638</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1">
-        <v>47</v>
+        <v>6809</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D73" t="s">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="E73">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="F73">
-        <v>182</v>
+        <v>900</v>
       </c>
       <c r="G73">
-        <v>28.45</v>
+        <v>469</v>
       </c>
       <c r="H73">
-        <v>55.21</v>
+        <v>468</v>
       </c>
       <c r="I73">
-        <v>26.76</v>
+        <v>-1</v>
       </c>
       <c r="J73">
-        <v>0.287741935483871</v>
+        <v>-0.25</v>
       </c>
       <c r="K73">
-        <v>19.31182795698924</v>
+        <v>15.325</v>
       </c>
       <c r="L73">
-        <v>0.923790310790621</v>
+        <v>2.11982736735212</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1">
-        <v>45</v>
+        <v>6821</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D74" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E74">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="F74">
-        <v>364</v>
+        <v>903</v>
       </c>
       <c r="G74">
-        <v>87.43000000000001</v>
+        <v>468</v>
       </c>
       <c r="H74">
-        <v>131.28</v>
+        <v>477</v>
       </c>
       <c r="I74">
-        <v>43.84999999999999</v>
+        <v>9</v>
       </c>
       <c r="J74">
-        <v>0.2564327485380117</v>
+        <v>3</v>
       </c>
       <c r="K74">
-        <v>16.32573099415204</v>
+        <v>15.23333333333333</v>
       </c>
       <c r="L74">
-        <v>1.03008400264366</v>
+        <v>2.36383195561092</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1">
-        <v>38</v>
+        <v>6877</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D75" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75">
-        <v>747</v>
+        <v>917</v>
       </c>
       <c r="G75">
-        <v>436.5</v>
+        <v>472</v>
       </c>
       <c r="H75">
-        <v>427.6</v>
+        <v>485</v>
       </c>
       <c r="I75">
-        <v>-8.899999999999977</v>
+        <v>13</v>
       </c>
       <c r="J75">
-        <v>-4.449999999999989</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="K75">
-        <v>19.4</v>
+        <v>15.43333333333333</v>
       </c>
       <c r="L75">
-        <v>2.34972825994949</v>
+        <v>3.85643767996709</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1">
-        <v>36</v>
+        <v>5581</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
       </c>
-      <c r="C76" t="s">
-        <v>92</v>
+      <c r="C76">
+        <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="E76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>752</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>422.2</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>424.4</v>
+        <v>2.35</v>
       </c>
       <c r="I76">
-        <v>2.199999999999989</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>0.5499999999999972</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>19.625</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>2.35254701669417</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1">
-        <v>33</v>
+        <v>5669</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D77" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="E77">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="F77">
-        <v>759</v>
+        <v>89</v>
       </c>
       <c r="G77">
-        <v>403.4</v>
+        <v>2.35</v>
       </c>
       <c r="H77">
-        <v>419</v>
+        <v>28.45</v>
       </c>
       <c r="I77">
-        <v>15.60000000000002</v>
+        <v>26.1</v>
       </c>
       <c r="J77">
-        <v>3.900000000000006</v>
+        <v>0.2965909090909091</v>
       </c>
       <c r="K77">
-        <v>21.175</v>
+        <v>20.16136363636364</v>
       </c>
       <c r="L77">
-        <v>2.46357841010355</v>
+        <v>0.865139827199921</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1">
-        <v>28</v>
+        <v>5762</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D78" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E78">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="F78">
-        <v>773</v>
+        <v>182</v>
       </c>
       <c r="G78">
-        <v>339.3</v>
+        <v>28.45</v>
       </c>
       <c r="H78">
-        <v>341.4</v>
+        <v>55.21</v>
       </c>
       <c r="I78">
-        <v>2.099999999999966</v>
+        <v>26.76</v>
       </c>
       <c r="J78">
-        <v>0.5249999999999915</v>
+        <v>0.287741935483871</v>
       </c>
       <c r="K78">
-        <v>18.875</v>
+        <v>19.31182795698924</v>
       </c>
       <c r="L78">
-        <v>3.39056846586748</v>
+        <v>0.923790310790621</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1">
-        <v>20</v>
+        <v>5944</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D79" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E79">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="F79">
-        <v>804</v>
+        <v>364</v>
       </c>
       <c r="G79">
-        <v>381.9</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="H79">
-        <v>307.5</v>
+        <v>131.28</v>
       </c>
       <c r="I79">
-        <v>-74.39999999999998</v>
+        <v>43.84999999999999</v>
       </c>
       <c r="J79">
-        <v>-4.376470588235293</v>
+        <v>0.2564327485380117</v>
       </c>
       <c r="K79">
-        <v>19.48235294117648</v>
+        <v>16.32573099415204</v>
       </c>
       <c r="L79">
-        <v>1.92625370781849</v>
+        <v>1.03008400264366</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1">
-        <v>18</v>
+        <v>6327</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D80" t="s">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="E80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F80">
-        <v>815</v>
+        <v>747</v>
       </c>
       <c r="G80">
-        <v>415.9</v>
+        <v>436.5</v>
       </c>
       <c r="H80">
-        <v>431.4</v>
+        <v>427.6</v>
       </c>
       <c r="I80">
-        <v>15.5</v>
+        <v>-8.899999999999977</v>
       </c>
       <c r="J80">
-        <v>3.875</v>
+        <v>-4.449999999999989</v>
       </c>
       <c r="K80">
-        <v>18.075</v>
+        <v>19.4</v>
       </c>
       <c r="L80">
-        <v>0.896729883690972</v>
+        <v>2.34972825994949</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="1">
-        <v>17</v>
+        <v>6332</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D81" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F81">
-        <v>818</v>
+        <v>752</v>
       </c>
       <c r="G81">
-        <v>431.4</v>
+        <v>422.2</v>
       </c>
       <c r="H81">
-        <v>418.1</v>
+        <v>424.4</v>
       </c>
       <c r="I81">
-        <v>-13.29999999999995</v>
+        <v>2.199999999999989</v>
       </c>
       <c r="J81">
-        <v>-4.433333333333318</v>
+        <v>0.5499999999999972</v>
       </c>
       <c r="K81">
-        <v>19.23333333333333</v>
+        <v>19.625</v>
       </c>
       <c r="L81">
-        <v>0.508082917276329</v>
+        <v>2.35254701669417</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="1">
-        <v>9</v>
+        <v>6339</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D82" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E82">
         <v>4</v>
       </c>
       <c r="F82">
-        <v>836</v>
+        <v>759</v>
       </c>
       <c r="G82">
-        <v>414.5</v>
+        <v>403.4</v>
       </c>
       <c r="H82">
-        <v>430.1</v>
+        <v>419</v>
       </c>
       <c r="I82">
         <v>15.60000000000002</v>
@@ -4198,2555 +4192,2707 @@
         <v>3.900000000000006</v>
       </c>
       <c r="K82">
-        <v>19.75</v>
+        <v>21.175</v>
       </c>
       <c r="L82">
-        <v>1.80354454815977</v>
+        <v>2.46357841010355</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="1">
-        <v>5</v>
+        <v>6353</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D83" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E83">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="F83">
-        <v>965</v>
+        <v>773</v>
       </c>
       <c r="G83">
-        <v>430.3</v>
+        <v>339.3</v>
       </c>
       <c r="H83">
-        <v>490</v>
+        <v>341.4</v>
       </c>
       <c r="I83">
-        <v>59.69999999999999</v>
+        <v>2.099999999999966</v>
       </c>
       <c r="J83">
-        <v>0.4893442622950819</v>
+        <v>0.5249999999999915</v>
       </c>
       <c r="K83">
-        <v>17.90327868852459</v>
+        <v>18.875</v>
       </c>
       <c r="L83">
-        <v>1.2187253615898</v>
+        <v>3.39056846586748</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="1">
-        <v>45</v>
+        <v>6402</v>
       </c>
       <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" t="s">
+        <v>197</v>
+      </c>
+      <c r="E84">
         <v>17</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84" t="s">
-        <v>100</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
       <c r="F84">
-        <v>1</v>
+        <v>804</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>381.9</v>
       </c>
       <c r="H84">
-        <v>4.5</v>
+        <v>307.5</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>-74.39999999999998</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>-4.376470588235293</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>19.48235294117648</v>
       </c>
       <c r="L84">
-        <v>0.08066754002723341</v>
+        <v>1.92625370781849</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="1">
-        <v>44</v>
+        <v>6407</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D85" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="E85">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="F85">
-        <v>134</v>
+        <v>815</v>
       </c>
       <c r="G85">
-        <v>4.5</v>
+        <v>415.9</v>
       </c>
       <c r="H85">
-        <v>46.5</v>
+        <v>431.4</v>
       </c>
       <c r="I85">
-        <v>42</v>
+        <v>15.5</v>
       </c>
       <c r="J85">
-        <v>0.3157894736842105</v>
+        <v>3.875</v>
       </c>
       <c r="K85">
-        <v>19.40526315789474</v>
+        <v>18.075</v>
       </c>
       <c r="L85">
-        <v>0.499890024194677</v>
+        <v>0.896729883690972</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="1">
-        <v>43</v>
+        <v>6401</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D86" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="E86">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="F86">
-        <v>237</v>
+        <v>818</v>
       </c>
       <c r="G86">
-        <v>46.5</v>
+        <v>431.4</v>
       </c>
       <c r="H86">
-        <v>75.34999999999999</v>
+        <v>418.1</v>
       </c>
       <c r="I86">
-        <v>28.84999999999999</v>
+        <v>-13.29999999999995</v>
       </c>
       <c r="J86">
-        <v>0.2800970873786407</v>
+        <v>-4.433333333333318</v>
       </c>
       <c r="K86">
-        <v>14.4126213592233</v>
+        <v>19.23333333333333</v>
       </c>
       <c r="L86">
-        <v>0.469818837856123</v>
+        <v>0.508082917276329</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="1">
-        <v>42</v>
+        <v>6403</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D87" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E87">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="F87">
-        <v>309</v>
+        <v>836</v>
       </c>
       <c r="G87">
-        <v>75.34999999999999</v>
+        <v>414.5</v>
       </c>
       <c r="H87">
-        <v>99.20999999999999</v>
+        <v>430.1</v>
       </c>
       <c r="I87">
-        <v>23.86</v>
+        <v>15.60000000000002</v>
       </c>
       <c r="J87">
-        <v>0.3313888888888889</v>
+        <v>3.900000000000006</v>
       </c>
       <c r="K87">
-        <v>17.625</v>
+        <v>19.75</v>
       </c>
       <c r="L87">
-        <v>1.34524901097293</v>
+        <v>1.80354454815977</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="1">
-        <v>39</v>
+        <v>6574</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D88" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="E88">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="F88">
-        <v>538</v>
+        <v>965</v>
       </c>
       <c r="G88">
-        <v>159.52</v>
+        <v>430.3</v>
       </c>
       <c r="H88">
-        <v>275.9</v>
+        <v>490</v>
       </c>
       <c r="I88">
-        <v>116.38</v>
+        <v>59.69999999999999</v>
       </c>
       <c r="J88">
-        <v>0.8253900709219856</v>
+        <v>0.4893442622950819</v>
       </c>
       <c r="K88">
-        <v>18.50212765957446</v>
+        <v>17.90327868852459</v>
       </c>
       <c r="L88">
-        <v>1.000200040008</v>
+        <v>1.2187253615898</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="1">
-        <v>38</v>
+        <v>3917</v>
       </c>
       <c r="B89" t="s">
         <v>17</v>
       </c>
-      <c r="C89" t="s">
-        <v>103</v>
+      <c r="C89">
+        <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E89">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>587</v>
+        <v>1</v>
       </c>
       <c r="G89">
-        <v>275.9</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>317.4</v>
+        <v>4.5</v>
       </c>
       <c r="I89">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>0.8469387755102041</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>14.54489795918367</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>0.996889704123136</v>
+        <v>0.08066754002723341</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="1">
-        <v>37</v>
+        <v>4808</v>
       </c>
       <c r="B90" t="s">
         <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="E90">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F90">
-        <v>715</v>
+        <v>134</v>
       </c>
       <c r="G90">
-        <v>317.4</v>
+        <v>4.5</v>
       </c>
       <c r="H90">
-        <v>423.8</v>
+        <v>46.5</v>
       </c>
       <c r="I90">
-        <v>106.4</v>
+        <v>42</v>
       </c>
       <c r="J90">
-        <v>0.8312500000000003</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="K90">
-        <v>16.965625</v>
+        <v>19.40526315789474</v>
       </c>
       <c r="L90">
-        <v>2.27088142258699</v>
+        <v>0.499890024194677</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="1">
-        <v>32</v>
+        <v>5272</v>
       </c>
       <c r="B91" t="s">
         <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E91">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="F91">
-        <v>732</v>
+        <v>237</v>
       </c>
       <c r="G91">
-        <v>436.7</v>
+        <v>46.5</v>
       </c>
       <c r="H91">
-        <v>424</v>
+        <v>75.34999999999999</v>
       </c>
       <c r="I91">
-        <v>-12.69999999999999</v>
+        <v>28.84999999999999</v>
       </c>
       <c r="J91">
-        <v>-3.174999999999997</v>
+        <v>0.2800970873786407</v>
       </c>
       <c r="K91">
-        <v>23.4</v>
+        <v>14.4126213592233</v>
       </c>
       <c r="L91">
-        <v>2.98310619858067</v>
+        <v>0.469818837856123</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="1">
-        <v>31</v>
+        <v>7095</v>
       </c>
       <c r="B92" t="s">
         <v>17</v>
       </c>
       <c r="C92" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="F92">
-        <v>735</v>
+        <v>309</v>
       </c>
       <c r="G92">
-        <v>424</v>
+        <v>75.34999999999999</v>
       </c>
       <c r="H92">
-        <v>434.2</v>
+        <v>99.20999999999999</v>
       </c>
       <c r="I92">
-        <v>10.19999999999999</v>
+        <v>23.86</v>
       </c>
       <c r="J92">
-        <v>3.399999999999996</v>
+        <v>0.3313888888888889</v>
       </c>
       <c r="K92">
-        <v>23.73333333333333</v>
+        <v>17.625</v>
       </c>
       <c r="L92">
-        <v>2.51853970193489</v>
+        <v>1.34524901097293</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="1">
-        <v>30</v>
+        <v>9594</v>
       </c>
       <c r="B93" t="s">
         <v>17</v>
       </c>
       <c r="C93" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D93" t="s">
-        <v>204</v>
+        <v>103</v>
       </c>
       <c r="E93">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="F93">
-        <v>739</v>
+        <v>538</v>
       </c>
       <c r="G93">
-        <v>434.2</v>
+        <v>159.52</v>
       </c>
       <c r="H93">
-        <v>447.8</v>
+        <v>275.9</v>
       </c>
       <c r="I93">
-        <v>13.60000000000002</v>
+        <v>116.38</v>
       </c>
       <c r="J93">
-        <v>3.400000000000006</v>
+        <v>0.8253900709219856</v>
       </c>
       <c r="K93">
-        <v>23.425</v>
+        <v>18.50212765957446</v>
       </c>
       <c r="L93">
-        <v>3.07419046317803</v>
+        <v>1.000200040008</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="1">
-        <v>28</v>
+        <v>9670</v>
       </c>
       <c r="B94" t="s">
         <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D94" t="s">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="E94">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="F94">
-        <v>746</v>
+        <v>587</v>
       </c>
       <c r="G94">
-        <v>455.5</v>
+        <v>275.9</v>
       </c>
       <c r="H94">
-        <v>455.5</v>
+        <v>317.4</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="K94">
-        <v>22.25</v>
+        <v>14.54489795918367</v>
       </c>
       <c r="L94">
-        <v>2.94505267962981</v>
+        <v>0.996889704123136</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="1">
-        <v>16</v>
+        <v>7178</v>
       </c>
       <c r="B95" t="s">
         <v>17</v>
       </c>
       <c r="C95" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D95" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E95">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="F95">
-        <v>788</v>
+        <v>715</v>
       </c>
       <c r="G95">
-        <v>456.9</v>
+        <v>317.4</v>
       </c>
       <c r="H95">
-        <v>444.2</v>
+        <v>423.8</v>
       </c>
       <c r="I95">
-        <v>-12.69999999999999</v>
+        <v>106.4</v>
       </c>
       <c r="J95">
-        <v>-3.174999999999997</v>
+        <v>0.8312500000000003</v>
       </c>
       <c r="K95">
-        <v>18.725</v>
+        <v>16.965625</v>
       </c>
       <c r="L95">
-        <v>3.73397059764867</v>
+        <v>2.27088142258699</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="1">
-        <v>10</v>
+        <v>8331</v>
       </c>
       <c r="B96" t="s">
         <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D96" t="s">
-        <v>207</v>
+        <v>106</v>
       </c>
       <c r="E96">
         <v>4</v>
       </c>
       <c r="F96">
-        <v>802</v>
+        <v>732</v>
       </c>
       <c r="G96">
-        <v>464.4</v>
+        <v>436.7</v>
       </c>
       <c r="H96">
-        <v>472.5</v>
+        <v>424</v>
       </c>
       <c r="I96">
-        <v>8.100000000000023</v>
+        <v>-12.69999999999999</v>
       </c>
       <c r="J96">
-        <v>2.025000000000006</v>
+        <v>-3.174999999999997</v>
       </c>
       <c r="K96">
-        <v>20.3</v>
+        <v>23.4</v>
       </c>
       <c r="L96">
-        <v>5.66829157691872</v>
+        <v>2.98310619858067</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="1">
-        <v>8</v>
+        <v>7193</v>
       </c>
       <c r="B97" t="s">
         <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D97" t="s">
-        <v>208</v>
+        <v>107</v>
       </c>
       <c r="E97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F97">
-        <v>809</v>
+        <v>735</v>
       </c>
       <c r="G97">
-        <v>476.7</v>
+        <v>424</v>
       </c>
       <c r="H97">
-        <v>484.7</v>
+        <v>434.2</v>
       </c>
       <c r="I97">
-        <v>8</v>
+        <v>10.19999999999999</v>
       </c>
       <c r="J97">
-        <v>2</v>
+        <v>3.399999999999996</v>
       </c>
       <c r="K97">
-        <v>19.95</v>
+        <v>23.73333333333333</v>
       </c>
       <c r="L97">
-        <v>8.25569052954358</v>
+        <v>2.51853970193489</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="1">
-        <v>60</v>
+        <v>7197</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C98" t="s">
+        <v>107</v>
       </c>
       <c r="D98" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>739</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>434.2</v>
       </c>
       <c r="H98">
-        <v>2.8</v>
+        <v>447.8</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>13.60000000000002</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>3.400000000000006</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>23.425</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>3.07419046317803</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="1">
-        <v>59</v>
+        <v>7204</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C99" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D99" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E99">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="F99">
-        <v>115</v>
+        <v>746</v>
       </c>
       <c r="G99">
-        <v>2.8</v>
+        <v>455.5</v>
       </c>
       <c r="H99">
-        <v>55.13</v>
+        <v>455.5</v>
       </c>
       <c r="I99">
-        <v>52.33000000000001</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>0.4590350877192983</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>22.26052631578948</v>
+        <v>22.25</v>
       </c>
       <c r="L99">
-        <v>0.330833336090278</v>
+        <v>2.94505267962981</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="1">
-        <v>56</v>
+        <v>7246</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C100" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D100" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="E100">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="F100">
-        <v>448</v>
+        <v>788</v>
       </c>
       <c r="G100">
-        <v>120</v>
+        <v>456.9</v>
       </c>
       <c r="H100">
-        <v>261.94</v>
+        <v>444.2</v>
       </c>
       <c r="I100">
-        <v>141.94</v>
+        <v>-12.69999999999999</v>
       </c>
       <c r="J100">
-        <v>0.9925874125874126</v>
+        <v>-3.174999999999997</v>
       </c>
       <c r="K100">
-        <v>19.68741258741258</v>
+        <v>18.725</v>
       </c>
       <c r="L100">
-        <v>1.86665339268699</v>
+        <v>3.73397059764867</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="1">
-        <v>55</v>
+        <v>7260</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D101" t="s">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="E101">
-        <v>162</v>
+        <v>4</v>
       </c>
       <c r="F101">
-        <v>610</v>
+        <v>802</v>
       </c>
       <c r="G101">
-        <v>261.94</v>
+        <v>464.4</v>
       </c>
       <c r="H101">
-        <v>354</v>
+        <v>472.5</v>
       </c>
       <c r="I101">
-        <v>92.06</v>
+        <v>8.100000000000023</v>
       </c>
       <c r="J101">
-        <v>0.5682716049382717</v>
+        <v>2.025000000000006</v>
       </c>
       <c r="K101">
-        <v>16.23580246913581</v>
+        <v>20.3</v>
       </c>
       <c r="L101">
-        <v>1.15560075238498</v>
+        <v>5.66829157691872</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="1">
-        <v>54</v>
+        <v>7267</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D102" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="E102">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="F102">
-        <v>664</v>
+        <v>809</v>
       </c>
       <c r="G102">
-        <v>354</v>
+        <v>476.7</v>
       </c>
       <c r="H102">
-        <v>353.3</v>
+        <v>484.7</v>
       </c>
       <c r="I102">
-        <v>-0.6999999999999886</v>
+        <v>8</v>
       </c>
       <c r="J102">
-        <v>-0.01296296296296275</v>
+        <v>2</v>
       </c>
       <c r="K102">
-        <v>16.62962962962963</v>
+        <v>19.95</v>
       </c>
       <c r="L102">
-        <v>0.920821894180046</v>
+        <v>8.25569052954358</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="1">
-        <v>53</v>
+        <v>3782</v>
       </c>
       <c r="B103" t="s">
         <v>18</v>
       </c>
-      <c r="C103" t="s">
-        <v>116</v>
+      <c r="C103">
+        <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E103">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>692</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>353.3</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>368</v>
+        <v>2.8</v>
       </c>
       <c r="I103">
-        <v>14.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="J103">
-        <v>0.5249999999999996</v>
+        <v>0</v>
       </c>
       <c r="K103">
-        <v>19.41071428571428</v>
+        <v>0</v>
       </c>
       <c r="L103">
-        <v>2.61890742794392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="1">
-        <v>51</v>
+        <v>4812</v>
       </c>
       <c r="B104" t="s">
         <v>18</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D104" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E104">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="F104">
-        <v>741</v>
+        <v>115</v>
       </c>
       <c r="G104">
-        <v>433.4</v>
+        <v>2.8</v>
       </c>
       <c r="H104">
-        <v>426.9</v>
+        <v>55.13</v>
       </c>
       <c r="I104">
-        <v>-6.5</v>
+        <v>52.33000000000001</v>
       </c>
       <c r="J104">
-        <v>-1.625</v>
+        <v>0.4590350877192983</v>
       </c>
       <c r="K104">
-        <v>21.725</v>
+        <v>22.26052631578948</v>
       </c>
       <c r="L104">
-        <v>2.96032060272127</v>
+        <v>0.330833336090278</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="1">
-        <v>48</v>
+        <v>9531</v>
       </c>
       <c r="B105" t="s">
         <v>18</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D105" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E105">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="F105">
-        <v>748</v>
+        <v>448</v>
       </c>
       <c r="G105">
-        <v>422.6</v>
+        <v>120</v>
       </c>
       <c r="H105">
-        <v>425</v>
+        <v>261.94</v>
       </c>
       <c r="I105">
-        <v>2.399999999999977</v>
+        <v>141.94</v>
       </c>
       <c r="J105">
-        <v>0.5999999999999943</v>
+        <v>0.9925874125874126</v>
       </c>
       <c r="K105">
-        <v>20.475</v>
+        <v>19.68741258741258</v>
       </c>
       <c r="L105">
-        <v>2.82044256773091</v>
+        <v>1.86665339268699</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="1">
-        <v>47</v>
+        <v>10139</v>
       </c>
       <c r="B106" t="s">
         <v>18</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D106" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="F106">
-        <v>750</v>
+        <v>610</v>
       </c>
       <c r="G106">
-        <v>425</v>
+        <v>261.94</v>
       </c>
       <c r="H106">
-        <v>427</v>
+        <v>354</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>92.06</v>
       </c>
       <c r="J106">
-        <v>1</v>
+        <v>0.5682716049382717</v>
       </c>
       <c r="K106">
-        <v>19.55</v>
+        <v>16.23580246913581</v>
       </c>
       <c r="L106">
-        <v>2.49019485774762</v>
+        <v>1.15560075238498</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="1">
-        <v>44</v>
+        <v>4442</v>
       </c>
       <c r="B107" t="s">
         <v>18</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D107" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="F107">
-        <v>757</v>
+        <v>664</v>
       </c>
       <c r="G107">
-        <v>434.5</v>
+        <v>354</v>
       </c>
       <c r="H107">
-        <v>435.7</v>
+        <v>353.3</v>
       </c>
       <c r="I107">
-        <v>1.199999999999989</v>
+        <v>-0.6999999999999886</v>
       </c>
       <c r="J107">
-        <v>0.5999999999999943</v>
+        <v>-0.01296296296296275</v>
       </c>
       <c r="K107">
-        <v>18.85</v>
+        <v>16.62962962962963</v>
       </c>
       <c r="L107">
-        <v>2.29516775381113</v>
+        <v>0.920821894180046</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="1">
-        <v>36</v>
+        <v>4470</v>
       </c>
       <c r="B108" t="s">
         <v>18</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D108" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E108">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F108">
-        <v>776</v>
+        <v>692</v>
       </c>
       <c r="G108">
-        <v>427.1</v>
+        <v>353.3</v>
       </c>
       <c r="H108">
-        <v>432.2</v>
+        <v>368</v>
       </c>
       <c r="I108">
-        <v>5.099999999999966</v>
+        <v>14.69999999999999</v>
       </c>
       <c r="J108">
-        <v>1.274999999999991</v>
+        <v>0.5249999999999996</v>
       </c>
       <c r="K108">
-        <v>20.25</v>
+        <v>19.41071428571428</v>
       </c>
       <c r="L108">
-        <v>2.52037155491281</v>
+        <v>2.61890742794392</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="1">
-        <v>29</v>
+        <v>7351</v>
       </c>
       <c r="B109" t="s">
         <v>18</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D109" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F109">
-        <v>790</v>
+        <v>741</v>
       </c>
       <c r="G109">
-        <v>439.2</v>
+        <v>433.4</v>
       </c>
       <c r="H109">
-        <v>447.9</v>
+        <v>426.9</v>
       </c>
       <c r="I109">
-        <v>8.699999999999989</v>
+        <v>-6.5</v>
       </c>
       <c r="J109">
-        <v>2.899999999999996</v>
+        <v>-1.625</v>
       </c>
       <c r="K109">
-        <v>17.83333333333333</v>
+        <v>21.725</v>
       </c>
       <c r="L109">
-        <v>0.969753391712488</v>
+        <v>2.96032060272127</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="1">
-        <v>24</v>
+        <v>7358</v>
       </c>
       <c r="B110" t="s">
         <v>18</v>
       </c>
       <c r="C110" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D110" t="s">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F110">
-        <v>800</v>
+        <v>748</v>
       </c>
       <c r="G110">
-        <v>422</v>
+        <v>422.6</v>
       </c>
       <c r="H110">
-        <v>424.9</v>
+        <v>425</v>
       </c>
       <c r="I110">
-        <v>2.899999999999977</v>
+        <v>2.399999999999977</v>
       </c>
       <c r="J110">
-        <v>2.899999999999977</v>
+        <v>0.5999999999999943</v>
       </c>
       <c r="K110">
-        <v>18.5</v>
+        <v>20.475</v>
       </c>
       <c r="L110">
-        <v>1.60682837787462</v>
+        <v>2.82044256773091</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="1">
-        <v>19</v>
+        <v>7360</v>
       </c>
       <c r="B111" t="s">
         <v>18</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D111" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="E111">
         <v>2</v>
       </c>
       <c r="F111">
-        <v>813</v>
+        <v>750</v>
       </c>
       <c r="G111">
-        <v>462.6</v>
+        <v>425</v>
       </c>
       <c r="H111">
-        <v>459.5</v>
+        <v>427</v>
       </c>
       <c r="I111">
-        <v>-3.100000000000023</v>
+        <v>2</v>
       </c>
       <c r="J111">
-        <v>-1.550000000000011</v>
+        <v>1</v>
       </c>
       <c r="K111">
-        <v>20.55</v>
+        <v>19.55</v>
       </c>
       <c r="L111">
-        <v>2.10084033613445</v>
+        <v>2.49019485774762</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="1">
-        <v>18</v>
+        <v>7367</v>
       </c>
       <c r="B112" t="s">
         <v>18</v>
       </c>
       <c r="C112" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D112" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E112">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F112">
-        <v>818</v>
+        <v>757</v>
       </c>
       <c r="G112">
-        <v>459.5</v>
+        <v>434.5</v>
       </c>
       <c r="H112">
-        <v>456.5</v>
+        <v>435.7</v>
       </c>
       <c r="I112">
-        <v>-3</v>
+        <v>1.199999999999989</v>
       </c>
       <c r="J112">
-        <v>-0.6</v>
+        <v>0.5999999999999943</v>
       </c>
       <c r="K112">
-        <v>21.1</v>
+        <v>18.85</v>
       </c>
       <c r="L112">
-        <v>2.2824796859308</v>
+        <v>2.29516775381113</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="1">
-        <v>15</v>
+        <v>7386</v>
       </c>
       <c r="B113" t="s">
         <v>18</v>
       </c>
       <c r="C113" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D113" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E113">
         <v>4</v>
       </c>
       <c r="F113">
-        <v>825</v>
+        <v>776</v>
       </c>
       <c r="G113">
-        <v>449.5</v>
+        <v>427.1</v>
       </c>
       <c r="H113">
-        <v>460.8</v>
+        <v>432.2</v>
       </c>
       <c r="I113">
-        <v>11.30000000000001</v>
+        <v>5.099999999999966</v>
       </c>
       <c r="J113">
-        <v>2.825000000000003</v>
+        <v>1.274999999999991</v>
       </c>
       <c r="K113">
-        <v>18.8</v>
+        <v>20.25</v>
       </c>
       <c r="L113">
-        <v>0.140594772123993</v>
+        <v>2.52037155491281</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="1">
-        <v>12</v>
+        <v>7409</v>
       </c>
       <c r="B114" t="s">
         <v>18</v>
       </c>
       <c r="C114" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D114" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="E114">
         <v>3</v>
       </c>
       <c r="F114">
-        <v>835</v>
+        <v>790</v>
       </c>
       <c r="G114">
-        <v>469.1</v>
+        <v>439.2</v>
       </c>
       <c r="H114">
-        <v>467.4</v>
+        <v>447.9</v>
       </c>
       <c r="I114">
-        <v>-1.700000000000045</v>
+        <v>8.699999999999989</v>
       </c>
       <c r="J114">
-        <v>-0.5666666666666819</v>
+        <v>2.899999999999996</v>
       </c>
       <c r="K114">
-        <v>19.9</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="L114">
-        <v>3.55952957257169</v>
+        <v>0.969753391712488</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="1">
-        <v>11</v>
+        <v>7388</v>
       </c>
       <c r="B115" t="s">
         <v>18</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D115" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>839</v>
+        <v>800</v>
       </c>
       <c r="G115">
-        <v>467.4</v>
+        <v>422</v>
       </c>
       <c r="H115">
-        <v>472.5</v>
+        <v>424.9</v>
       </c>
       <c r="I115">
-        <v>5.100000000000023</v>
+        <v>2.899999999999977</v>
       </c>
       <c r="J115">
-        <v>1.275000000000006</v>
+        <v>2.899999999999977</v>
       </c>
       <c r="K115">
-        <v>20.225</v>
+        <v>18.5</v>
       </c>
       <c r="L115">
-        <v>0.39565726585003</v>
+        <v>1.60682837787462</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="1">
-        <v>9</v>
+        <v>7423</v>
       </c>
       <c r="B116" t="s">
         <v>18</v>
       </c>
       <c r="C116" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D116" t="s">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c r="E116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F116">
-        <v>846</v>
+        <v>813</v>
       </c>
       <c r="G116">
-        <v>457.3</v>
+        <v>462.6</v>
       </c>
       <c r="H116">
-        <v>468.4</v>
+        <v>459.5</v>
       </c>
       <c r="I116">
-        <v>11.09999999999997</v>
+        <v>-3.100000000000023</v>
       </c>
       <c r="J116">
-        <v>2.774999999999991</v>
+        <v>-1.550000000000011</v>
       </c>
       <c r="K116">
-        <v>19.675</v>
+        <v>20.55</v>
       </c>
       <c r="L116">
-        <v>1.01953427674238</v>
+        <v>2.10084033613445</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="1">
-        <v>4</v>
+        <v>7428</v>
       </c>
       <c r="B117" t="s">
         <v>18</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D117" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E117">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F117">
-        <v>863</v>
+        <v>818</v>
       </c>
       <c r="G117">
-        <v>446.3</v>
+        <v>459.5</v>
       </c>
       <c r="H117">
-        <v>450.2</v>
+        <v>456.5</v>
       </c>
       <c r="I117">
-        <v>3.899999999999977</v>
+        <v>-3</v>
       </c>
       <c r="J117">
-        <v>1.299999999999992</v>
+        <v>-0.6</v>
       </c>
       <c r="K117">
-        <v>18.7</v>
+        <v>21.1</v>
       </c>
       <c r="L117">
-        <v>1.91160727940052</v>
+        <v>2.2824796859308</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="1">
-        <v>2</v>
+        <v>7439</v>
       </c>
       <c r="B118" t="s">
         <v>18</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D118" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F118">
-        <v>870</v>
+        <v>825</v>
       </c>
       <c r="G118">
-        <v>432.7</v>
+        <v>449.5</v>
       </c>
       <c r="H118">
-        <v>431</v>
+        <v>460.8</v>
       </c>
       <c r="I118">
-        <v>-1.699999999999989</v>
+        <v>11.30000000000001</v>
       </c>
       <c r="J118">
-        <v>-0.5666666666666629</v>
+        <v>2.825000000000003</v>
       </c>
       <c r="K118">
-        <v>16.3</v>
+        <v>18.8</v>
       </c>
       <c r="L118">
-        <v>0</v>
+        <v>0.140594772123993</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="1">
-        <v>63</v>
+        <v>7449</v>
       </c>
       <c r="B119" t="s">
-        <v>19</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="C119" t="s">
+        <v>127</v>
       </c>
       <c r="D119" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>835</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>469.1</v>
       </c>
       <c r="H119">
-        <v>3.4</v>
+        <v>467.4</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>-1.700000000000045</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>-0.5666666666666819</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>19.9</v>
       </c>
       <c r="L119">
-        <v>0.0632772447279724</v>
+        <v>3.55952957257169</v>
       </c>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="1">
-        <v>62</v>
+        <v>7457</v>
       </c>
       <c r="B120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C120" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D120" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E120">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="F120">
-        <v>221</v>
+        <v>839</v>
       </c>
       <c r="G120">
-        <v>3.4</v>
+        <v>467.4</v>
       </c>
       <c r="H120">
-        <v>107.55</v>
+        <v>472.5</v>
       </c>
       <c r="I120">
-        <v>104.15</v>
+        <v>5.100000000000023</v>
       </c>
       <c r="J120">
-        <v>0.4734090909090909</v>
+        <v>1.275000000000006</v>
       </c>
       <c r="K120">
-        <v>20.86772727272728</v>
+        <v>20.225</v>
       </c>
       <c r="L120">
-        <v>1.28485710247592</v>
+        <v>0.39565726585003</v>
       </c>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="1">
-        <v>60</v>
+        <v>7466</v>
       </c>
       <c r="B121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C121" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D121" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="E121">
-        <v>224</v>
+        <v>4</v>
       </c>
       <c r="F121">
-        <v>586</v>
+        <v>846</v>
       </c>
       <c r="G121">
-        <v>125.92</v>
+        <v>457.3</v>
       </c>
       <c r="H121">
-        <v>341.6</v>
+        <v>468.4</v>
       </c>
       <c r="I121">
-        <v>215.68</v>
+        <v>11.09999999999997</v>
       </c>
       <c r="J121">
-        <v>0.9628571428571429</v>
+        <v>2.774999999999991</v>
       </c>
       <c r="K121">
-        <v>19.33973214285714</v>
+        <v>19.675</v>
       </c>
       <c r="L121">
-        <v>2.17935894730081</v>
+        <v>1.01953427674238</v>
       </c>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="1">
-        <v>59</v>
+        <v>4519</v>
       </c>
       <c r="B122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C122" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D122" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E122">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="F122">
-        <v>706</v>
+        <v>863</v>
       </c>
       <c r="G122">
-        <v>341.6</v>
+        <v>446.3</v>
       </c>
       <c r="H122">
-        <v>338</v>
+        <v>450.2</v>
       </c>
       <c r="I122">
-        <v>-3.600000000000023</v>
+        <v>3.899999999999977</v>
       </c>
       <c r="J122">
-        <v>-0.03000000000000019</v>
+        <v>1.299999999999992</v>
       </c>
       <c r="K122">
-        <v>15.00833333333333</v>
+        <v>18.7</v>
       </c>
       <c r="L122">
-        <v>1.49970698032846</v>
+        <v>1.91160727940052</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="1">
-        <v>54</v>
+        <v>8420</v>
       </c>
       <c r="B123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C123" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D123" t="s">
-        <v>116</v>
+        <v>221</v>
       </c>
       <c r="E123">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="F123">
-        <v>766</v>
+        <v>870</v>
       </c>
       <c r="G123">
-        <v>322</v>
+        <v>432.7</v>
       </c>
       <c r="H123">
-        <v>376.3</v>
+        <v>431</v>
       </c>
       <c r="I123">
-        <v>54.30000000000001</v>
+        <v>-1.699999999999989</v>
       </c>
       <c r="J123">
-        <v>1.04423076923077</v>
+        <v>-0.5666666666666629</v>
       </c>
       <c r="K123">
-        <v>16.67884615384616</v>
+        <v>16.3</v>
       </c>
       <c r="L123">
-        <v>1.9625287837555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="1">
-        <v>48</v>
+        <v>3801</v>
       </c>
       <c r="B124" t="s">
         <v>19</v>
       </c>
-      <c r="C124" t="s">
-        <v>136</v>
+      <c r="C124">
+        <v>0</v>
       </c>
       <c r="D124" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E124">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>780</v>
+        <v>1</v>
       </c>
       <c r="G124">
-        <v>417.3</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>416.4</v>
+        <v>3.4</v>
       </c>
       <c r="I124">
-        <v>-0.9000000000000341</v>
+        <v>0</v>
       </c>
       <c r="J124">
-        <v>-0.2250000000000085</v>
+        <v>0</v>
       </c>
       <c r="K124">
-        <v>19.55</v>
+        <v>0</v>
       </c>
       <c r="L124">
-        <v>2.22625196314946</v>
+        <v>0.0632772447279724</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="1">
-        <v>47</v>
+        <v>7135</v>
       </c>
       <c r="B125" t="s">
         <v>19</v>
       </c>
       <c r="C125" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D125" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="E125">
-        <v>2</v>
+        <v>220</v>
       </c>
       <c r="F125">
-        <v>782</v>
+        <v>221</v>
       </c>
       <c r="G125">
-        <v>416.4</v>
+        <v>3.4</v>
       </c>
       <c r="H125">
-        <v>416</v>
+        <v>107.55</v>
       </c>
       <c r="I125">
-        <v>-0.3999999999999773</v>
+        <v>104.15</v>
       </c>
       <c r="J125">
-        <v>-0.1999999999999886</v>
+        <v>0.4734090909090909</v>
       </c>
       <c r="K125">
-        <v>18.95</v>
+        <v>20.86772727272728</v>
       </c>
       <c r="L125">
-        <v>1.71461178445821</v>
+        <v>1.28485710247592</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="1">
-        <v>46</v>
+        <v>10199</v>
       </c>
       <c r="B126" t="s">
         <v>19</v>
       </c>
       <c r="C126" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D126" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="F126">
-        <v>783</v>
+        <v>586</v>
       </c>
       <c r="G126">
-        <v>416</v>
+        <v>125.92</v>
       </c>
       <c r="H126">
-        <v>413</v>
+        <v>341.6</v>
       </c>
       <c r="I126">
-        <v>-3</v>
+        <v>215.68</v>
       </c>
       <c r="J126">
-        <v>-3</v>
+        <v>0.9628571428571429</v>
       </c>
       <c r="K126">
-        <v>17.9</v>
+        <v>19.33973214285714</v>
       </c>
       <c r="L126">
-        <v>1.60740243766074</v>
+        <v>2.17935894730081</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="1">
-        <v>45</v>
+        <v>4966</v>
       </c>
       <c r="B127" t="s">
         <v>19</v>
       </c>
       <c r="C127" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D127" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E127">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="F127">
-        <v>787</v>
+        <v>706</v>
       </c>
       <c r="G127">
-        <v>413</v>
+        <v>341.6</v>
       </c>
       <c r="H127">
-        <v>416</v>
+        <v>338</v>
       </c>
       <c r="I127">
-        <v>3</v>
+        <v>-3.600000000000023</v>
       </c>
       <c r="J127">
-        <v>0.75</v>
+        <v>-0.03000000000000019</v>
       </c>
       <c r="K127">
-        <v>19.475</v>
+        <v>15.00833333333333</v>
       </c>
       <c r="L127">
-        <v>1.87037442018393</v>
+        <v>1.49970698032846</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="1">
-        <v>41</v>
+        <v>5024</v>
       </c>
       <c r="B128" t="s">
         <v>19</v>
       </c>
       <c r="C128" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D128" t="s">
-        <v>225</v>
+        <v>116</v>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="F128">
-        <v>796</v>
+        <v>766</v>
       </c>
       <c r="G128">
-        <v>427</v>
+        <v>322</v>
       </c>
       <c r="H128">
-        <v>417</v>
+        <v>376.3</v>
       </c>
       <c r="I128">
-        <v>-10</v>
+        <v>54.30000000000001</v>
       </c>
       <c r="J128">
-        <v>-5</v>
+        <v>1.04423076923077</v>
       </c>
       <c r="K128">
-        <v>21.5</v>
+        <v>16.67884615384616</v>
       </c>
       <c r="L128">
-        <v>2.23559812271429</v>
+        <v>1.9625287837555</v>
       </c>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="1">
-        <v>38</v>
+        <v>5038</v>
       </c>
       <c r="B129" t="s">
         <v>19</v>
       </c>
       <c r="C129" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D129" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F129">
-        <v>802</v>
+        <v>780</v>
       </c>
       <c r="G129">
-        <v>432</v>
+        <v>417.3</v>
       </c>
       <c r="H129">
-        <v>427</v>
+        <v>416.4</v>
       </c>
       <c r="I129">
-        <v>-5</v>
+        <v>-0.9000000000000341</v>
       </c>
       <c r="J129">
-        <v>-5</v>
+        <v>-0.2250000000000085</v>
       </c>
       <c r="K129">
-        <v>23.6</v>
+        <v>19.55</v>
       </c>
       <c r="L129">
-        <v>2.97459694211434</v>
+        <v>2.22625196314946</v>
       </c>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="1">
-        <v>35</v>
+        <v>5040</v>
       </c>
       <c r="B130" t="s">
         <v>19</v>
       </c>
       <c r="C130" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D130" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E130">
         <v>2</v>
       </c>
       <c r="F130">
-        <v>810</v>
+        <v>782</v>
       </c>
       <c r="G130">
-        <v>415</v>
+        <v>416.4</v>
       </c>
       <c r="H130">
-        <v>417.5</v>
+        <v>416</v>
       </c>
       <c r="I130">
-        <v>2.5</v>
+        <v>-0.3999999999999773</v>
       </c>
       <c r="J130">
-        <v>1.25</v>
+        <v>-0.1999999999999886</v>
       </c>
       <c r="K130">
-        <v>20.15</v>
+        <v>18.95</v>
       </c>
       <c r="L130">
-        <v>1.63480611199512</v>
+        <v>1.71461178445821</v>
       </c>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="1">
-        <v>34</v>
+        <v>5041</v>
       </c>
       <c r="B131" t="s">
         <v>19</v>
       </c>
       <c r="C131" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D131" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E131">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>916</v>
+        <v>783</v>
       </c>
       <c r="G131">
-        <v>417.5</v>
+        <v>416</v>
       </c>
       <c r="H131">
-        <v>445.2</v>
+        <v>413</v>
       </c>
       <c r="I131">
-        <v>27.69999999999999</v>
+        <v>-3</v>
       </c>
       <c r="J131">
-        <v>0.261320754716981</v>
+        <v>-3</v>
       </c>
       <c r="K131">
-        <v>20.35849056603773</v>
+        <v>17.9</v>
       </c>
       <c r="L131">
-        <v>1.09822526796697</v>
+        <v>1.60740243766074</v>
       </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="1">
-        <v>33</v>
+        <v>5045</v>
       </c>
       <c r="B132" t="s">
         <v>19</v>
       </c>
       <c r="C132" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D132" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E132">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="F132">
-        <v>976</v>
+        <v>787</v>
       </c>
       <c r="G132">
-        <v>445.2</v>
+        <v>413</v>
       </c>
       <c r="H132">
-        <v>493.4</v>
+        <v>416</v>
       </c>
       <c r="I132">
-        <v>48.19999999999999</v>
+        <v>3</v>
       </c>
       <c r="J132">
-        <v>0.8033333333333331</v>
+        <v>0.75</v>
       </c>
       <c r="K132">
-        <v>19.26833333333333</v>
+        <v>19.475</v>
       </c>
       <c r="L132">
-        <v>0</v>
+        <v>1.87037442018393</v>
       </c>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="1">
-        <v>28</v>
+        <v>5068</v>
       </c>
       <c r="B133" t="s">
         <v>19</v>
       </c>
       <c r="C133" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D133" t="s">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="E133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F133">
-        <v>993</v>
+        <v>810</v>
       </c>
       <c r="G133">
-        <v>503.2</v>
+        <v>415</v>
       </c>
       <c r="H133">
-        <v>493.5</v>
+        <v>417.5</v>
       </c>
       <c r="I133">
-        <v>-9.699999999999989</v>
+        <v>2.5</v>
       </c>
       <c r="J133">
-        <v>-3.233333333333329</v>
+        <v>1.25</v>
       </c>
       <c r="K133">
-        <v>17.46666666666667</v>
+        <v>20.15</v>
       </c>
       <c r="L133">
-        <v>1.0234995496602</v>
+        <v>1.63480611199512</v>
       </c>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="1">
-        <v>26</v>
+        <v>7603</v>
       </c>
       <c r="B134" t="s">
         <v>19</v>
       </c>
       <c r="C134" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D134" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="E134">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="F134">
-        <v>1004</v>
+        <v>916</v>
       </c>
       <c r="G134">
-        <v>491</v>
+        <v>417.5</v>
       </c>
       <c r="H134">
-        <v>490.8</v>
+        <v>445.2</v>
       </c>
       <c r="I134">
-        <v>-0.1999999999999886</v>
+        <v>27.69999999999999</v>
       </c>
       <c r="J134">
-        <v>-0.02857142857142695</v>
+        <v>0.261320754716981</v>
       </c>
       <c r="K134">
-        <v>16.57142857142857</v>
+        <v>20.35849056603773</v>
       </c>
       <c r="L134">
-        <v>0.488462515386569</v>
+        <v>1.09822526796697</v>
       </c>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="1">
-        <v>24</v>
+        <v>9870</v>
       </c>
       <c r="B135" t="s">
         <v>19</v>
       </c>
       <c r="C135" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D135" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E135">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F135">
-        <v>1011</v>
+        <v>976</v>
       </c>
       <c r="G135">
-        <v>494.8</v>
+        <v>445.2</v>
       </c>
       <c r="H135">
-        <v>479.6</v>
+        <v>493.4</v>
       </c>
       <c r="I135">
-        <v>-15.19999999999999</v>
+        <v>48.19999999999999</v>
       </c>
       <c r="J135">
-        <v>-3.039999999999998</v>
+        <v>0.8033333333333331</v>
       </c>
       <c r="K135">
-        <v>17.22</v>
+        <v>19.26833333333333</v>
       </c>
       <c r="L135">
-        <v>1.418344611322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="1">
-        <v>18</v>
+        <v>9842</v>
       </c>
       <c r="B136" t="s">
         <v>19</v>
       </c>
       <c r="C136" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D136" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F136">
-        <v>1032</v>
+        <v>993</v>
       </c>
       <c r="G136">
-        <v>495.8</v>
+        <v>503.2</v>
       </c>
       <c r="H136">
-        <v>487.9</v>
+        <v>493.5</v>
       </c>
       <c r="I136">
-        <v>-7.900000000000034</v>
+        <v>-9.699999999999989</v>
       </c>
       <c r="J136">
-        <v>-1.975000000000009</v>
+        <v>-3.233333333333329</v>
       </c>
       <c r="K136">
-        <v>15.6</v>
+        <v>17.46666666666667</v>
       </c>
       <c r="L136">
-        <v>0.76092691043383</v>
+        <v>1.0234995496602</v>
       </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="1">
-        <v>16</v>
+        <v>8510</v>
       </c>
       <c r="B137" t="s">
         <v>19</v>
       </c>
       <c r="C137" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D137" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="E137">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F137">
-        <v>1039</v>
+        <v>1004</v>
       </c>
       <c r="G137">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="H137">
-        <v>469.2</v>
+        <v>490.8</v>
       </c>
       <c r="I137">
-        <v>2.199999999999989</v>
+        <v>-0.1999999999999886</v>
       </c>
       <c r="J137">
-        <v>0.5499999999999972</v>
+        <v>-0.02857142857142695</v>
       </c>
       <c r="K137">
-        <v>15.075</v>
+        <v>16.57142857142857</v>
       </c>
       <c r="L137">
-        <v>0.824610783710089</v>
+        <v>0.488462515386569</v>
       </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="1">
-        <v>15</v>
+        <v>8502</v>
       </c>
       <c r="B138" t="s">
         <v>19</v>
       </c>
       <c r="C138" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D138" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E138">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F138">
-        <v>1042</v>
+        <v>1011</v>
       </c>
       <c r="G138">
-        <v>469.2</v>
+        <v>494.8</v>
       </c>
       <c r="H138">
-        <v>463.2</v>
+        <v>479.6</v>
       </c>
       <c r="I138">
-        <v>-6</v>
+        <v>-15.19999999999999</v>
       </c>
       <c r="J138">
-        <v>-2</v>
+        <v>-3.039999999999998</v>
       </c>
       <c r="K138">
-        <v>14.93333333333333</v>
+        <v>17.22</v>
       </c>
       <c r="L138">
-        <v>0.0951699354367158</v>
+        <v>1.418344611322</v>
       </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="1">
-        <v>11</v>
+        <v>9815</v>
       </c>
       <c r="B139" t="s">
         <v>19</v>
       </c>
       <c r="C139" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D139" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E139">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F139">
-        <v>1056</v>
+        <v>1032</v>
       </c>
       <c r="G139">
-        <v>453.6</v>
+        <v>495.8</v>
       </c>
       <c r="H139">
-        <v>454.5</v>
+        <v>487.9</v>
       </c>
       <c r="I139">
-        <v>0.8999999999999773</v>
+        <v>-7.900000000000034</v>
       </c>
       <c r="J139">
-        <v>0.2999999999999924</v>
+        <v>-1.975000000000009</v>
       </c>
       <c r="K139">
-        <v>13.06666666666667</v>
+        <v>15.6</v>
       </c>
       <c r="L139">
-        <v>1.47133832934437</v>
+        <v>0.76092691043383</v>
       </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="1">
-        <v>6</v>
+        <v>9793</v>
       </c>
       <c r="B140" t="s">
         <v>19</v>
       </c>
       <c r="C140" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D140" t="s">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="E140">
         <v>4</v>
       </c>
       <c r="F140">
-        <v>1074</v>
+        <v>1039</v>
       </c>
       <c r="G140">
-        <v>436.1</v>
+        <v>467</v>
       </c>
       <c r="H140">
-        <v>440.8</v>
+        <v>469.2</v>
       </c>
       <c r="I140">
-        <v>4.699999999999989</v>
+        <v>2.199999999999989</v>
       </c>
       <c r="J140">
-        <v>1.174999999999997</v>
+        <v>0.5499999999999972</v>
       </c>
       <c r="K140">
-        <v>14.025</v>
+        <v>15.075</v>
       </c>
       <c r="L140">
-        <v>1.25573452097914</v>
+        <v>0.824610783710089</v>
       </c>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="1">
-        <v>4</v>
+        <v>9775</v>
       </c>
       <c r="B141" t="s">
         <v>19</v>
       </c>
       <c r="C141" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D141" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F141">
-        <v>1081</v>
+        <v>1042</v>
       </c>
       <c r="G141">
-        <v>445.1</v>
+        <v>469.2</v>
       </c>
       <c r="H141">
-        <v>446.5</v>
+        <v>463.2</v>
       </c>
       <c r="I141">
-        <v>1.399999999999977</v>
+        <v>-6</v>
       </c>
       <c r="J141">
-        <v>0.3499999999999943</v>
+        <v>-2</v>
       </c>
       <c r="K141">
-        <v>13.9</v>
+        <v>14.93333333333333</v>
       </c>
       <c r="L141">
-        <v>1.44705053352124</v>
+        <v>0.0951699354367158</v>
       </c>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="1">
-        <v>1</v>
+        <v>9769</v>
       </c>
       <c r="B142" t="s">
         <v>19</v>
       </c>
       <c r="C142" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D142" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F142">
-        <v>1090</v>
+        <v>1056</v>
       </c>
       <c r="G142">
-        <v>453.3</v>
+        <v>453.6</v>
       </c>
       <c r="H142">
-        <v>446.8</v>
+        <v>454.5</v>
       </c>
       <c r="I142">
-        <v>-6.5</v>
+        <v>0.8999999999999773</v>
       </c>
       <c r="J142">
-        <v>-3.25</v>
+        <v>0.2999999999999924</v>
       </c>
       <c r="K142">
-        <v>14.4</v>
+        <v>13.06666666666667</v>
       </c>
       <c r="L142">
-        <v>0</v>
+        <v>1.47133832934437</v>
       </c>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="1">
-        <v>24</v>
+        <v>9791</v>
       </c>
       <c r="B143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="D143" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="E143">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="F143">
-        <v>50</v>
+        <v>1074</v>
       </c>
       <c r="G143">
-        <v>3.02</v>
+        <v>436.1</v>
       </c>
       <c r="H143">
-        <v>12.79</v>
+        <v>440.8</v>
       </c>
       <c r="I143">
-        <v>9.77</v>
+        <v>4.699999999999989</v>
       </c>
       <c r="J143">
-        <v>0.1993877551020408</v>
+        <v>1.174999999999997</v>
       </c>
       <c r="K143">
-        <v>20.24285714285714</v>
+        <v>14.025</v>
       </c>
       <c r="L143">
-        <v>0.493536644108752</v>
+        <v>1.25573452097914</v>
       </c>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="1">
-        <v>23</v>
+        <v>9792</v>
       </c>
       <c r="B144" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="D144" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="E144">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="F144">
-        <v>103</v>
+        <v>1081</v>
       </c>
       <c r="G144">
-        <v>12.79</v>
+        <v>445.1</v>
       </c>
       <c r="H144">
-        <v>36.56</v>
+        <v>446.5</v>
       </c>
       <c r="I144">
-        <v>23.77</v>
+        <v>1.399999999999977</v>
       </c>
       <c r="J144">
-        <v>0.4484905660377359</v>
+        <v>0.3499999999999943</v>
       </c>
       <c r="K144">
-        <v>21.23396226415094</v>
+        <v>13.9</v>
       </c>
       <c r="L144">
-        <v>0.755179155956853</v>
+        <v>1.44705053352124</v>
       </c>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="1">
-        <v>22</v>
+        <v>9817</v>
       </c>
       <c r="B145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="D145" t="s">
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="E145">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="F145">
-        <v>190</v>
+        <v>1090</v>
       </c>
       <c r="G145">
-        <v>36.56</v>
+        <v>453.3</v>
       </c>
       <c r="H145">
-        <v>72</v>
+        <v>446.8</v>
       </c>
       <c r="I145">
-        <v>35.44</v>
+        <v>-6.5</v>
       </c>
       <c r="J145">
-        <v>0.4073563218390804</v>
+        <v>-3.25</v>
       </c>
       <c r="K145">
-        <v>19.63563218390805</v>
+        <v>14.4</v>
       </c>
       <c r="L145">
-        <v>1.17283578288464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="1">
-        <v>21</v>
+        <v>8562</v>
       </c>
       <c r="B146" t="s">
         <v>20</v>
       </c>
-      <c r="C146" t="s">
-        <v>36</v>
+      <c r="C146">
+        <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E146">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>306</v>
+        <v>1</v>
       </c>
       <c r="G146">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>123.96</v>
+        <v>3.02</v>
       </c>
       <c r="I146">
-        <v>51.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="J146">
-        <v>0.4479310344827586</v>
+        <v>0</v>
       </c>
       <c r="K146">
-        <v>16.11465517241379</v>
+        <v>0</v>
       </c>
       <c r="L146">
-        <v>1.20574901128581</v>
+        <v>0.0519479799854823</v>
       </c>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="1">
-        <v>20</v>
+        <v>8611</v>
       </c>
       <c r="B147" t="s">
         <v>20</v>
       </c>
       <c r="C147" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D147" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E147">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="F147">
-        <v>421</v>
+        <v>50</v>
       </c>
       <c r="G147">
-        <v>123.96</v>
+        <v>3.02</v>
       </c>
       <c r="H147">
-        <v>152.1</v>
+        <v>12.79</v>
       </c>
       <c r="I147">
-        <v>28.14</v>
+        <v>9.77</v>
       </c>
       <c r="J147">
-        <v>0.244695652173913</v>
+        <v>0.1993877551020408</v>
       </c>
       <c r="K147">
-        <v>16.45913043478261</v>
+        <v>20.24285714285714</v>
       </c>
       <c r="L147">
-        <v>2.89383889118159</v>
+        <v>0.493536644108752</v>
       </c>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="1">
-        <v>15</v>
+        <v>8664</v>
       </c>
       <c r="B148" t="s">
         <v>20</v>
       </c>
       <c r="C148" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="D148" t="s">
-        <v>237</v>
+        <v>35</v>
       </c>
       <c r="E148">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="F148">
-        <v>755</v>
+        <v>103</v>
       </c>
       <c r="G148">
-        <v>417.4</v>
+        <v>12.79</v>
       </c>
       <c r="H148">
-        <v>421.2</v>
+        <v>36.56</v>
       </c>
       <c r="I148">
-        <v>3.800000000000011</v>
+        <v>23.77</v>
       </c>
       <c r="J148">
-        <v>1.900000000000006</v>
+        <v>0.4484905660377359</v>
       </c>
       <c r="K148">
-        <v>20.3</v>
+        <v>21.23396226415094</v>
       </c>
       <c r="L148">
-        <v>0</v>
+        <v>0.755179155956853</v>
       </c>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="1">
-        <v>5</v>
+        <v>8751</v>
       </c>
       <c r="B149" t="s">
         <v>20</v>
       </c>
       <c r="C149" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="D149" t="s">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="E149">
+        <v>87</v>
+      </c>
+      <c r="F149">
+        <v>190</v>
+      </c>
+      <c r="G149">
+        <v>36.56</v>
+      </c>
+      <c r="H149">
+        <v>72</v>
+      </c>
+      <c r="I149">
+        <v>35.44</v>
+      </c>
+      <c r="J149">
+        <v>0.4073563218390804</v>
+      </c>
+      <c r="K149">
+        <v>19.63563218390805</v>
+      </c>
+      <c r="L149">
+        <v>1.17283578288464</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="1">
+        <v>8867</v>
+      </c>
+      <c r="B150" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150" t="s">
+        <v>36</v>
+      </c>
+      <c r="D150" t="s">
+        <v>37</v>
+      </c>
+      <c r="E150">
+        <v>116</v>
+      </c>
+      <c r="F150">
+        <v>306</v>
+      </c>
+      <c r="G150">
+        <v>72</v>
+      </c>
+      <c r="H150">
+        <v>123.96</v>
+      </c>
+      <c r="I150">
+        <v>51.95999999999999</v>
+      </c>
+      <c r="J150">
+        <v>0.4479310344827586</v>
+      </c>
+      <c r="K150">
+        <v>16.11465517241379</v>
+      </c>
+      <c r="L150">
+        <v>1.20574901128581</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="1">
+        <v>8982</v>
+      </c>
+      <c r="B151" t="s">
+        <v>20</v>
+      </c>
+      <c r="C151" t="s">
+        <v>37</v>
+      </c>
+      <c r="D151" t="s">
+        <v>38</v>
+      </c>
+      <c r="E151">
+        <v>115</v>
+      </c>
+      <c r="F151">
+        <v>421</v>
+      </c>
+      <c r="G151">
+        <v>123.96</v>
+      </c>
+      <c r="H151">
+        <v>152.1</v>
+      </c>
+      <c r="I151">
+        <v>28.14</v>
+      </c>
+      <c r="J151">
+        <v>0.244695652173913</v>
+      </c>
+      <c r="K151">
+        <v>16.45913043478261</v>
+      </c>
+      <c r="L151">
+        <v>2.89383889118159</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="1">
+        <v>9316</v>
+      </c>
+      <c r="B152" t="s">
+        <v>20</v>
+      </c>
+      <c r="C152" t="s">
+        <v>153</v>
+      </c>
+      <c r="D152" t="s">
+        <v>235</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152">
+        <v>755</v>
+      </c>
+      <c r="G152">
+        <v>417.4</v>
+      </c>
+      <c r="H152">
+        <v>421.2</v>
+      </c>
+      <c r="I152">
+        <v>3.800000000000011</v>
+      </c>
+      <c r="J152">
+        <v>1.900000000000006</v>
+      </c>
+      <c r="K152">
+        <v>20.3</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="1">
+        <v>9351</v>
+      </c>
+      <c r="B153" t="s">
+        <v>20</v>
+      </c>
+      <c r="C153" t="s">
+        <v>154</v>
+      </c>
+      <c r="D153" t="s">
+        <v>163</v>
+      </c>
+      <c r="E153">
         <v>14</v>
       </c>
-      <c r="F149">
+      <c r="F153">
         <v>790</v>
       </c>
-      <c r="G149">
+      <c r="G153">
         <v>421.4</v>
       </c>
-      <c r="H149">
+      <c r="H153">
         <v>447.8</v>
       </c>
-      <c r="I149">
+      <c r="I153">
         <v>26.40000000000003</v>
       </c>
-      <c r="J149">
+      <c r="J153">
         <v>1.885714285714288</v>
       </c>
-      <c r="K149">
+      <c r="K153">
         <v>23.25</v>
       </c>
-      <c r="L149">
+      <c r="L153">
         <v>0</v>
       </c>
     </row>
